--- a/transition_table.xlsx
+++ b/transition_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agustin.quintanar/Desktop/tec/compiler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B952A2-15A9-7944-8303-1E5C58E5EF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B53FC4D-ED6A-B749-B1AD-FA14CDAB3D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{C87F3C94-E967-7646-AB38-6573D1AFE849}"/>
   </bookViews>
@@ -40,9 +40,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="48">
-  <si>
-    <t>state/ input char</t>
-  </si>
   <si>
     <t>+</t>
   </si>
@@ -179,10 +176,13 @@
     <t>TRANSITION</t>
   </si>
   <si>
-    <t>SUCCESS</t>
+    <t>ERROR</t>
   </si>
   <si>
-    <t>ERROR</t>
+    <t>_STATE_ID</t>
+  </si>
+  <si>
+    <t>ACCEPTING</t>
   </si>
 </sst>
 </file>
@@ -324,21 +324,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -358,6 +343,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -685,7 +685,7 @@
   <dimension ref="A1:AN197"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="Z10" sqref="Z10"/>
+      <selection activeCell="Z31" sqref="Z31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -697,76 +697,76 @@
   <sheetData>
     <row r="1" spans="1:36" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" s="13" t="s">
+      <c r="W1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="X1" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="X1" s="14" t="s">
-        <v>44</v>
       </c>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
@@ -785,72 +785,72 @@
       <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="11">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="11">
         <v>2</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="11">
         <v>16</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="11">
         <v>17</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="11">
         <v>18</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="11">
         <v>9</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="11">
         <v>8</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="11">
         <v>7</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="11">
         <v>25</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="11">
         <v>26</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="11">
         <v>12</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="12">
         <v>46</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="11">
         <v>19</v>
       </c>
-      <c r="O2" s="4">
+      <c r="O2" s="11">
         <v>20</v>
       </c>
-      <c r="P2" s="4">
+      <c r="P2" s="11">
         <v>21</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="Q2" s="11">
         <v>22</v>
       </c>
-      <c r="R2" s="4">
+      <c r="R2" s="11">
         <v>23</v>
       </c>
-      <c r="S2" s="4">
+      <c r="S2" s="11">
         <v>24</v>
       </c>
-      <c r="T2" s="4">
+      <c r="T2" s="11">
         <v>0</v>
       </c>
-      <c r="U2" s="4">
+      <c r="U2" s="11">
         <v>0</v>
       </c>
-      <c r="V2" s="5">
+      <c r="V2" s="12">
         <v>46</v>
       </c>
-      <c r="W2" s="9"/>
-      <c r="X2" s="15" t="s">
-        <v>45</v>
+      <c r="W2" s="4"/>
+      <c r="X2" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
@@ -869,72 +869,72 @@
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="11">
         <v>1</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="11">
         <v>1</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="11">
         <v>13</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="11">
         <v>13</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="11">
         <v>13</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="11">
         <v>13</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="11">
         <v>13</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="11">
         <v>13</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="11">
         <v>13</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="11">
         <v>13</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="11">
         <v>13</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="12">
         <v>37</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="11">
         <v>13</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="11">
         <v>13</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="11">
         <v>13</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="11">
         <v>13</v>
       </c>
-      <c r="R3" s="4">
+      <c r="R3" s="11">
         <v>13</v>
       </c>
-      <c r="S3" s="4">
+      <c r="S3" s="11">
         <v>13</v>
       </c>
-      <c r="T3" s="4">
+      <c r="T3" s="11">
         <v>13</v>
       </c>
-      <c r="U3" s="4">
+      <c r="U3" s="11">
         <v>13</v>
       </c>
-      <c r="V3" s="5">
+      <c r="V3" s="12">
         <v>37</v>
       </c>
-      <c r="W3" s="9"/>
-      <c r="X3" s="15" t="s">
-        <v>45</v>
+      <c r="W3" s="4"/>
+      <c r="X3" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
@@ -953,72 +953,72 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="12">
         <v>38</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="11">
         <v>2</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="11">
         <v>14</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="11">
         <v>14</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="11">
         <v>14</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="11">
         <v>14</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="11">
         <v>14</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="11">
         <v>14</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="11">
         <v>14</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="11">
         <v>14</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="11">
         <v>14</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="11">
         <v>3</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="11">
         <v>14</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="11">
         <v>14</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="11">
         <v>14</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="11">
         <v>14</v>
       </c>
-      <c r="R4" s="4">
+      <c r="R4" s="11">
         <v>14</v>
       </c>
-      <c r="S4" s="4">
+      <c r="S4" s="11">
         <v>14</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4" s="11">
         <v>14</v>
       </c>
-      <c r="U4" s="4">
+      <c r="U4" s="11">
         <v>14</v>
       </c>
-      <c r="V4" s="5">
+      <c r="V4" s="12">
         <v>38</v>
       </c>
-      <c r="W4" s="9"/>
-      <c r="X4" s="15" t="s">
-        <v>45</v>
+      <c r="W4" s="4"/>
+      <c r="X4" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
@@ -1037,72 +1037,72 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="12">
         <v>39</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="11">
         <v>4</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="12">
         <v>39</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="12">
         <v>39</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="12">
         <v>39</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="12">
         <v>39</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="12">
         <v>39</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="12">
         <v>39</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="12">
         <v>39</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="12">
         <v>39</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="12">
         <v>39</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="12">
         <v>39</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="12">
         <v>39</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="12">
         <v>39</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" s="12">
         <v>39</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5" s="12">
         <v>39</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5" s="12">
         <v>39</v>
       </c>
-      <c r="S5" s="5">
+      <c r="S5" s="12">
         <v>39</v>
       </c>
-      <c r="T5" s="5">
+      <c r="T5" s="12">
         <v>39</v>
       </c>
-      <c r="U5" s="5">
+      <c r="U5" s="12">
         <v>39</v>
       </c>
-      <c r="V5" s="5">
+      <c r="V5" s="12">
         <v>39</v>
       </c>
-      <c r="W5" s="9"/>
-      <c r="X5" s="15" t="s">
-        <v>45</v>
+      <c r="W5" s="4"/>
+      <c r="X5" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
@@ -1121,72 +1121,72 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="11">
         <v>39</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="11">
         <v>4</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="11">
         <v>15</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="11">
         <v>15</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="11">
         <v>15</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="11">
         <v>15</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="11">
         <v>15</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="11">
         <v>15</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="11">
         <v>15</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="11">
         <v>15</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="11">
         <v>15</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="12">
         <v>39</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="11">
         <v>15</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="11">
         <v>15</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="11">
         <v>15</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="11">
         <v>15</v>
       </c>
-      <c r="R6" s="4">
+      <c r="R6" s="11">
         <v>15</v>
       </c>
-      <c r="S6" s="4">
+      <c r="S6" s="11">
         <v>15</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6" s="11">
         <v>15</v>
       </c>
-      <c r="U6" s="4">
+      <c r="U6" s="11">
         <v>15</v>
       </c>
-      <c r="V6" s="5">
+      <c r="V6" s="12">
         <v>39</v>
       </c>
-      <c r="W6" s="9"/>
-      <c r="X6" s="15" t="s">
-        <v>45</v>
+      <c r="W6" s="4"/>
+      <c r="X6" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
@@ -1205,72 +1205,72 @@
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="11">
         <v>27</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="11">
         <v>27</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="11">
         <v>27</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="11">
         <v>27</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="11">
         <v>27</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="11">
         <v>27</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="11">
         <v>28</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="11">
         <v>27</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="11">
         <v>27</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="11">
         <v>27</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="11">
         <v>27</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="12">
         <v>40</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="11">
         <v>27</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="11">
         <v>27</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="11">
         <v>27</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="11">
         <v>27</v>
       </c>
-      <c r="R7" s="4">
+      <c r="R7" s="11">
         <v>27</v>
       </c>
-      <c r="S7" s="4">
+      <c r="S7" s="11">
         <v>27</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T7" s="11">
         <v>27</v>
       </c>
-      <c r="U7" s="4">
+      <c r="U7" s="11">
         <v>27</v>
       </c>
-      <c r="V7" s="5">
+      <c r="V7" s="12">
         <v>40</v>
       </c>
-      <c r="W7" s="9"/>
-      <c r="X7" s="15" t="s">
-        <v>45</v>
+      <c r="W7" s="4"/>
+      <c r="X7" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
@@ -1289,72 +1289,72 @@
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="11">
         <v>29</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="11">
         <v>29</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="11">
         <v>29</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="11">
         <v>29</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="11">
         <v>29</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="11">
         <v>29</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="11">
         <v>30</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="11">
         <v>29</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="11">
         <v>29</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="11">
         <v>29</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="11">
         <v>29</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="12">
         <v>41</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="11">
         <v>29</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="11">
         <v>29</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="11">
         <v>29</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="11">
         <v>29</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R8" s="11">
         <v>29</v>
       </c>
-      <c r="S8" s="4">
+      <c r="S8" s="11">
         <v>29</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T8" s="11">
         <v>29</v>
       </c>
-      <c r="U8" s="4">
+      <c r="U8" s="11">
         <v>29</v>
       </c>
-      <c r="V8" s="5">
+      <c r="V8" s="12">
         <v>41</v>
       </c>
-      <c r="W8" s="9"/>
-      <c r="X8" s="15" t="s">
-        <v>45</v>
+      <c r="W8" s="4"/>
+      <c r="X8" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
@@ -1373,72 +1373,72 @@
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="12">
         <v>42</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="12">
         <v>42</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="12">
         <v>42</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="12">
         <v>42</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="12">
         <v>42</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="12">
         <v>42</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="11">
         <v>31</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="12">
         <v>42</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="12">
         <v>42</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="12">
         <v>42</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="12">
         <v>42</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="12">
         <v>42</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="12">
         <v>42</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="12">
         <v>42</v>
       </c>
-      <c r="P9" s="5">
+      <c r="P9" s="12">
         <v>42</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="Q9" s="12">
         <v>42</v>
       </c>
-      <c r="R9" s="5">
+      <c r="R9" s="12">
         <v>42</v>
       </c>
-      <c r="S9" s="5">
+      <c r="S9" s="12">
         <v>42</v>
       </c>
-      <c r="T9" s="5">
+      <c r="T9" s="12">
         <v>42</v>
       </c>
-      <c r="U9" s="5">
+      <c r="U9" s="12">
         <v>42</v>
       </c>
-      <c r="V9" s="5">
+      <c r="V9" s="12">
         <v>42</v>
       </c>
-      <c r="W9" s="9"/>
-      <c r="X9" s="15" t="s">
-        <v>45</v>
+      <c r="W9" s="4"/>
+      <c r="X9" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
@@ -1457,72 +1457,72 @@
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="11">
         <v>32</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="11">
         <v>32</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="11">
         <v>32</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="11">
         <v>32</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="11">
         <v>32</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="11">
         <v>32</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="11">
         <v>33</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="11">
         <v>32</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="11">
         <v>32</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="11">
         <v>32</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="11">
         <v>32</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="12">
         <v>43</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="11">
         <v>32</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="11">
         <v>32</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="11">
         <v>32</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="11">
         <v>32</v>
       </c>
-      <c r="R10" s="4">
+      <c r="R10" s="11">
         <v>32</v>
       </c>
-      <c r="S10" s="4">
+      <c r="S10" s="11">
         <v>32</v>
       </c>
-      <c r="T10" s="4">
+      <c r="T10" s="11">
         <v>32</v>
       </c>
-      <c r="U10" s="4">
+      <c r="U10" s="11">
         <v>32</v>
       </c>
-      <c r="V10" s="5">
+      <c r="V10" s="12">
         <v>43</v>
       </c>
-      <c r="W10" s="9"/>
-      <c r="X10" s="15" t="s">
-        <v>45</v>
+      <c r="W10" s="4"/>
+      <c r="X10" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
@@ -1541,72 +1541,72 @@
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="11">
         <v>34</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="11">
         <v>34</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="11">
         <v>34</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="11">
         <v>34</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="11">
         <v>10</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="11">
         <v>34</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="11">
         <v>34</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="11">
         <v>34</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="11">
         <v>34</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="11">
         <v>34</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="11">
         <v>34</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="11">
         <v>34</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="11">
         <v>34</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="11">
         <v>34</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="11">
         <v>34</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="11">
         <v>34</v>
       </c>
-      <c r="R11" s="4">
+      <c r="R11" s="11">
         <v>34</v>
       </c>
-      <c r="S11" s="4">
+      <c r="S11" s="11">
         <v>34</v>
       </c>
-      <c r="T11" s="4">
+      <c r="T11" s="11">
         <v>34</v>
       </c>
-      <c r="U11" s="4">
+      <c r="U11" s="11">
         <v>34</v>
       </c>
-      <c r="V11" s="5">
+      <c r="V11" s="12">
         <v>46</v>
       </c>
-      <c r="W11" s="9"/>
-      <c r="X11" s="15" t="s">
-        <v>45</v>
+      <c r="W11" s="4"/>
+      <c r="X11" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
@@ -1625,72 +1625,72 @@
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="11">
         <v>10</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="11">
         <v>10</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="11">
         <v>10</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="11">
         <v>10</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="11">
         <v>11</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="11">
         <v>10</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="11">
         <v>10</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="11">
         <v>10</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="11">
         <v>10</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="11">
         <v>10</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="11">
         <v>10</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="11">
         <v>10</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="11">
         <v>10</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="11">
         <v>10</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="11">
         <v>10</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="11">
         <v>10</v>
       </c>
-      <c r="R12" s="4">
+      <c r="R12" s="11">
         <v>10</v>
       </c>
-      <c r="S12" s="4">
+      <c r="S12" s="11">
         <v>10</v>
       </c>
-      <c r="T12" s="4">
+      <c r="T12" s="11">
         <v>10</v>
       </c>
-      <c r="U12" s="5">
+      <c r="U12" s="12">
         <v>44</v>
       </c>
-      <c r="V12" s="6">
+      <c r="V12" s="13">
         <v>10</v>
       </c>
-      <c r="W12" s="9"/>
-      <c r="X12" s="15" t="s">
-        <v>45</v>
+      <c r="W12" s="4"/>
+      <c r="X12" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
@@ -1709,72 +1709,72 @@
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="11">
         <v>10</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="11">
         <v>10</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="11">
         <v>10</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="11">
         <v>10</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="11">
         <v>10</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="11">
         <v>35</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="11">
         <v>10</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="11">
         <v>10</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="11">
         <v>10</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="11">
         <v>10</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="11">
         <v>10</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="11">
         <v>10</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="11">
         <v>10</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="11">
         <v>10</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="11">
         <v>10</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13" s="11">
         <v>10</v>
       </c>
-      <c r="R13" s="4">
+      <c r="R13" s="11">
         <v>10</v>
       </c>
-      <c r="S13" s="4">
+      <c r="S13" s="11">
         <v>10</v>
       </c>
-      <c r="T13" s="4">
+      <c r="T13" s="11">
         <v>10</v>
       </c>
-      <c r="U13" s="5">
+      <c r="U13" s="12">
         <v>44</v>
       </c>
-      <c r="V13" s="4">
+      <c r="V13" s="11">
         <v>10</v>
       </c>
-      <c r="W13" s="9"/>
-      <c r="X13" s="15" t="s">
-        <v>45</v>
+      <c r="W13" s="4"/>
+      <c r="X13" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
@@ -1793,72 +1793,72 @@
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="11">
         <v>12</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="11">
         <v>12</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="11">
         <v>12</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="11">
         <v>12</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="11">
         <v>12</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="11">
         <v>12</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="11">
         <v>12</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="11">
         <v>12</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="11">
         <v>12</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="11">
         <v>12</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="11">
         <v>36</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="11">
         <v>12</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="11">
         <v>12</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14" s="11">
         <v>12</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14" s="11">
         <v>12</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="Q14" s="11">
         <v>12</v>
       </c>
-      <c r="R14" s="4">
+      <c r="R14" s="11">
         <v>12</v>
       </c>
-      <c r="S14" s="4">
+      <c r="S14" s="11">
         <v>12</v>
       </c>
-      <c r="T14" s="4">
+      <c r="T14" s="11">
         <v>12</v>
       </c>
-      <c r="U14" s="5">
+      <c r="U14" s="12">
         <v>45</v>
       </c>
-      <c r="V14" s="4">
+      <c r="V14" s="11">
         <v>12</v>
       </c>
-      <c r="W14" s="9"/>
-      <c r="X14" s="15" t="s">
-        <v>45</v>
+      <c r="W14" s="4"/>
+      <c r="X14" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
@@ -1877,32 +1877,32 @@
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="X15" s="15" t="s">
-        <v>46</v>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="X15" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
@@ -1921,32 +1921,32 @@
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="X16" s="15" t="s">
-        <v>46</v>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="X16" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
@@ -1965,32 +1965,32 @@
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="X17" s="15" t="s">
-        <v>46</v>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="X17" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
@@ -2009,32 +2009,32 @@
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="X18" s="15" t="s">
-        <v>46</v>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="X18" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
@@ -2053,32 +2053,32 @@
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="X19" s="15" t="s">
-        <v>46</v>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="X19" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
@@ -2097,32 +2097,32 @@
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="X20" s="15" t="s">
-        <v>46</v>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="X20" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
@@ -2141,32 +2141,32 @@
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="X21" s="15" t="s">
-        <v>46</v>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="X21" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
@@ -2185,32 +2185,32 @@
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="X22" s="15" t="s">
-        <v>46</v>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="X22" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
@@ -2229,32 +2229,32 @@
       <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="X23" s="15" t="s">
-        <v>46</v>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="X23" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
@@ -2273,32 +2273,32 @@
       <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="X24" s="15" t="s">
-        <v>46</v>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="X24" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
@@ -2317,32 +2317,32 @@
       <c r="A25" s="3">
         <v>23</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="X25" s="15" t="s">
-        <v>46</v>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="X25" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
@@ -2361,32 +2361,32 @@
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="X26" s="15" t="s">
-        <v>46</v>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="X26" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
@@ -2405,32 +2405,32 @@
       <c r="A27" s="3">
         <v>25</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="X27" s="15" t="s">
-        <v>46</v>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="X27" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
@@ -2449,32 +2449,32 @@
       <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="7"/>
-      <c r="W28" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="X28" s="15" t="s">
-        <v>46</v>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="X28" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
@@ -2493,32 +2493,32 @@
       <c r="A29" s="3">
         <v>27</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="7"/>
-      <c r="W29" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="X29" s="15" t="s">
-        <v>46</v>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="X29" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
@@ -2537,32 +2537,32 @@
       <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="7"/>
-      <c r="W30" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="X30" s="15" t="s">
-        <v>46</v>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="X30" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
@@ -2581,32 +2581,32 @@
       <c r="A31" s="3">
         <v>29</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
-      <c r="U31" s="7"/>
-      <c r="V31" s="7"/>
-      <c r="W31" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="X31" s="15" t="s">
-        <v>46</v>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="X31" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
@@ -2625,32 +2625,32 @@
       <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="7"/>
-      <c r="T32" s="7"/>
-      <c r="U32" s="7"/>
-      <c r="V32" s="7"/>
-      <c r="W32" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="X32" s="15" t="s">
-        <v>46</v>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="14"/>
+      <c r="W32" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="X32" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
@@ -2669,32 +2669,32 @@
       <c r="A33" s="3">
         <v>31</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="7"/>
-      <c r="T33" s="7"/>
-      <c r="U33" s="7"/>
-      <c r="V33" s="7"/>
-      <c r="W33" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="X33" s="15" t="s">
-        <v>46</v>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="14"/>
+      <c r="V33" s="14"/>
+      <c r="W33" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="X33" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
@@ -2713,32 +2713,32 @@
       <c r="A34" s="3">
         <v>32</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
-      <c r="S34" s="7"/>
-      <c r="T34" s="7"/>
-      <c r="U34" s="7"/>
-      <c r="V34" s="7"/>
-      <c r="W34" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="X34" s="15" t="s">
-        <v>46</v>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="14"/>
+      <c r="V34" s="14"/>
+      <c r="W34" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="X34" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
@@ -2757,32 +2757,32 @@
       <c r="A35" s="3">
         <v>33</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
-      <c r="S35" s="7"/>
-      <c r="T35" s="7"/>
-      <c r="U35" s="7"/>
-      <c r="V35" s="7"/>
-      <c r="W35" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="X35" s="15" t="s">
-        <v>46</v>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="14"/>
+      <c r="V35" s="14"/>
+      <c r="W35" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="X35" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
@@ -2801,32 +2801,32 @@
       <c r="A36" s="3">
         <v>34</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="7"/>
-      <c r="R36" s="7"/>
-      <c r="S36" s="7"/>
-      <c r="T36" s="7"/>
-      <c r="U36" s="7"/>
-      <c r="V36" s="7"/>
-      <c r="W36" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="X36" s="15" t="s">
-        <v>46</v>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="14"/>
+      <c r="V36" s="14"/>
+      <c r="W36" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="X36" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
@@ -2845,32 +2845,32 @@
       <c r="A37" s="3">
         <v>35</v>
       </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
-      <c r="P37" s="7"/>
-      <c r="Q37" s="7"/>
-      <c r="R37" s="7"/>
-      <c r="S37" s="7"/>
-      <c r="T37" s="7"/>
-      <c r="U37" s="7"/>
-      <c r="V37" s="7"/>
-      <c r="W37" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="X37" s="15" t="s">
-        <v>46</v>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="14"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="14"/>
+      <c r="V37" s="14"/>
+      <c r="W37" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="X37" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
@@ -2889,32 +2889,32 @@
       <c r="A38" s="3">
         <v>36</v>
       </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="7"/>
-      <c r="Q38" s="7"/>
-      <c r="R38" s="7"/>
-      <c r="S38" s="7"/>
-      <c r="T38" s="7"/>
-      <c r="U38" s="7"/>
-      <c r="V38" s="7"/>
-      <c r="W38" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="X38" s="15" t="s">
-        <v>46</v>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="14"/>
+      <c r="W38" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="X38" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
@@ -2933,32 +2933,32 @@
       <c r="A39" s="3">
         <v>37</v>
       </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="8"/>
-      <c r="R39" s="8"/>
-      <c r="S39" s="8"/>
-      <c r="T39" s="8"/>
-      <c r="U39" s="8"/>
-      <c r="V39" s="8"/>
-      <c r="W39" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="X39" s="15" t="s">
-        <v>47</v>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="15"/>
+      <c r="S39" s="15"/>
+      <c r="T39" s="15"/>
+      <c r="U39" s="15"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="X39" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
@@ -2977,32 +2977,32 @@
       <c r="A40" s="3">
         <v>38</v>
       </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="8"/>
-      <c r="Q40" s="8"/>
-      <c r="R40" s="8"/>
-      <c r="S40" s="8"/>
-      <c r="T40" s="8"/>
-      <c r="U40" s="8"/>
-      <c r="V40" s="8"/>
-      <c r="W40" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="X40" s="15" t="s">
-        <v>47</v>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="15"/>
+      <c r="R40" s="15"/>
+      <c r="S40" s="15"/>
+      <c r="T40" s="15"/>
+      <c r="U40" s="15"/>
+      <c r="V40" s="15"/>
+      <c r="W40" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="X40" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
@@ -3021,32 +3021,32 @@
       <c r="A41" s="3">
         <v>39</v>
       </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
-      <c r="P41" s="8"/>
-      <c r="Q41" s="8"/>
-      <c r="R41" s="8"/>
-      <c r="S41" s="8"/>
-      <c r="T41" s="8"/>
-      <c r="U41" s="8"/>
-      <c r="V41" s="8"/>
-      <c r="W41" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="X41" s="15" t="s">
-        <v>47</v>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="15"/>
+      <c r="R41" s="15"/>
+      <c r="S41" s="15"/>
+      <c r="T41" s="15"/>
+      <c r="U41" s="15"/>
+      <c r="V41" s="15"/>
+      <c r="W41" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="X41" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
@@ -3065,32 +3065,32 @@
       <c r="A42" s="3">
         <v>40</v>
       </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="8"/>
-      <c r="R42" s="8"/>
-      <c r="S42" s="8"/>
-      <c r="T42" s="8"/>
-      <c r="U42" s="8"/>
-      <c r="V42" s="8"/>
-      <c r="W42" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="X42" s="15" t="s">
-        <v>47</v>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="15"/>
+      <c r="P42" s="15"/>
+      <c r="Q42" s="15"/>
+      <c r="R42" s="15"/>
+      <c r="S42" s="15"/>
+      <c r="T42" s="15"/>
+      <c r="U42" s="15"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="X42" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
@@ -3109,32 +3109,32 @@
       <c r="A43" s="3">
         <v>41</v>
       </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="8"/>
-      <c r="R43" s="8"/>
-      <c r="S43" s="8"/>
-      <c r="T43" s="8"/>
-      <c r="U43" s="8"/>
-      <c r="V43" s="8"/>
-      <c r="W43" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="X43" s="15" t="s">
-        <v>47</v>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="15"/>
+      <c r="P43" s="15"/>
+      <c r="Q43" s="15"/>
+      <c r="R43" s="15"/>
+      <c r="S43" s="15"/>
+      <c r="T43" s="15"/>
+      <c r="U43" s="15"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="X43" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
@@ -3153,32 +3153,32 @@
       <c r="A44" s="3">
         <v>42</v>
       </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
-      <c r="P44" s="8"/>
-      <c r="Q44" s="8"/>
-      <c r="R44" s="8"/>
-      <c r="S44" s="8"/>
-      <c r="T44" s="8"/>
-      <c r="U44" s="8"/>
-      <c r="V44" s="8"/>
-      <c r="W44" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="X44" s="15" t="s">
-        <v>47</v>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="15"/>
+      <c r="P44" s="15"/>
+      <c r="Q44" s="15"/>
+      <c r="R44" s="15"/>
+      <c r="S44" s="15"/>
+      <c r="T44" s="15"/>
+      <c r="U44" s="15"/>
+      <c r="V44" s="15"/>
+      <c r="W44" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="X44" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
@@ -3197,32 +3197,32 @@
       <c r="A45" s="3">
         <v>43</v>
       </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="8"/>
-      <c r="R45" s="8"/>
-      <c r="S45" s="8"/>
-      <c r="T45" s="8"/>
-      <c r="U45" s="8"/>
-      <c r="V45" s="8"/>
-      <c r="W45" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="X45" s="15" t="s">
-        <v>47</v>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="15"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="15"/>
+      <c r="P45" s="15"/>
+      <c r="Q45" s="15"/>
+      <c r="R45" s="15"/>
+      <c r="S45" s="15"/>
+      <c r="T45" s="15"/>
+      <c r="U45" s="15"/>
+      <c r="V45" s="15"/>
+      <c r="W45" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="X45" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
@@ -3241,32 +3241,32 @@
       <c r="A46" s="3">
         <v>44</v>
       </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
-      <c r="P46" s="8"/>
-      <c r="Q46" s="8"/>
-      <c r="R46" s="8"/>
-      <c r="S46" s="8"/>
-      <c r="T46" s="8"/>
-      <c r="U46" s="8"/>
-      <c r="V46" s="8"/>
-      <c r="W46" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="X46" s="15" t="s">
-        <v>47</v>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="15"/>
+      <c r="O46" s="15"/>
+      <c r="P46" s="15"/>
+      <c r="Q46" s="15"/>
+      <c r="R46" s="15"/>
+      <c r="S46" s="15"/>
+      <c r="T46" s="15"/>
+      <c r="U46" s="15"/>
+      <c r="V46" s="15"/>
+      <c r="W46" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="X46" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
@@ -3285,32 +3285,32 @@
       <c r="A47" s="3">
         <v>45</v>
       </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
-      <c r="P47" s="8"/>
-      <c r="Q47" s="8"/>
-      <c r="R47" s="8"/>
-      <c r="S47" s="8"/>
-      <c r="T47" s="8"/>
-      <c r="U47" s="8"/>
-      <c r="V47" s="8"/>
-      <c r="W47" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="X47" s="15" t="s">
-        <v>47</v>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="15"/>
+      <c r="P47" s="15"/>
+      <c r="Q47" s="15"/>
+      <c r="R47" s="15"/>
+      <c r="S47" s="15"/>
+      <c r="T47" s="15"/>
+      <c r="U47" s="15"/>
+      <c r="V47" s="15"/>
+      <c r="W47" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="X47" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
@@ -3329,32 +3329,32 @@
       <c r="A48" s="3">
         <v>46</v>
       </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
-      <c r="P48" s="8"/>
-      <c r="Q48" s="8"/>
-      <c r="R48" s="8"/>
-      <c r="S48" s="8"/>
-      <c r="T48" s="8"/>
-      <c r="U48" s="8"/>
-      <c r="V48" s="8"/>
-      <c r="W48" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="X48" s="15" t="s">
-        <v>47</v>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="15"/>
+      <c r="P48" s="15"/>
+      <c r="Q48" s="15"/>
+      <c r="R48" s="15"/>
+      <c r="S48" s="15"/>
+      <c r="T48" s="15"/>
+      <c r="U48" s="15"/>
+      <c r="V48" s="15"/>
+      <c r="W48" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="X48" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>

--- a/transition_table.xlsx
+++ b/transition_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agustin.quintanar/Desktop/tec/compiler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B53FC4D-ED6A-B749-B1AD-FA14CDAB3D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E149C9D-2CD1-7C44-89A6-8A185CF6C674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{C87F3C94-E967-7646-AB38-6573D1AFE849}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$W$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$Y$48</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="48">
   <si>
     <t>+</t>
   </si>
@@ -682,20 +682,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AN197"/>
+  <dimension ref="A1:AP197"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="Z31" sqref="Z31"/>
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.83203125" customWidth="1"/>
-    <col min="23" max="23" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.1640625" customWidth="1"/>
+    <col min="25" max="25" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>46</v>
       </c>
@@ -754,22 +754,26 @@
         <v>14</v>
       </c>
       <c r="T1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="Y1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="Z1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
@@ -780,8 +784,10 @@
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
       <c r="AJ1" s="1"/>
-    </row>
-    <row r="2" spans="1:36" ht="19" x14ac:dyDescent="0.2">
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+    </row>
+    <row r="2" spans="1:38" ht="19" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -840,20 +846,24 @@
         <v>24</v>
       </c>
       <c r="T2" s="11">
+        <v>5</v>
+      </c>
+      <c r="U2" s="11">
+        <v>6</v>
+      </c>
+      <c r="V2" s="11">
         <v>0</v>
       </c>
-      <c r="U2" s="11">
+      <c r="W2" s="11">
         <v>0</v>
       </c>
-      <c r="V2" s="12">
+      <c r="X2" s="12">
         <v>46</v>
       </c>
-      <c r="W2" s="4"/>
-      <c r="X2" s="10" t="s">
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -864,8 +874,10 @@
       <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
-    </row>
-    <row r="3" spans="1:36" ht="19" x14ac:dyDescent="0.2">
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+    </row>
+    <row r="3" spans="1:38" ht="19" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -929,15 +941,19 @@
       <c r="U3" s="11">
         <v>13</v>
       </c>
-      <c r="V3" s="12">
+      <c r="V3" s="11">
+        <v>13</v>
+      </c>
+      <c r="W3" s="11">
+        <v>13</v>
+      </c>
+      <c r="X3" s="12">
         <v>37</v>
       </c>
-      <c r="W3" s="4"/>
-      <c r="X3" s="10" t="s">
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
@@ -948,8 +964,10 @@
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
       <c r="AJ3" s="1"/>
-    </row>
-    <row r="4" spans="1:36" ht="19" x14ac:dyDescent="0.2">
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+    </row>
+    <row r="4" spans="1:38" ht="19" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1013,15 +1031,19 @@
       <c r="U4" s="11">
         <v>14</v>
       </c>
-      <c r="V4" s="12">
+      <c r="V4" s="11">
+        <v>14</v>
+      </c>
+      <c r="W4" s="11">
+        <v>14</v>
+      </c>
+      <c r="X4" s="12">
         <v>38</v>
       </c>
-      <c r="W4" s="4"/>
-      <c r="X4" s="10" t="s">
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
@@ -1032,8 +1054,10 @@
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
-    </row>
-    <row r="5" spans="1:36" ht="19" x14ac:dyDescent="0.2">
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+    </row>
+    <row r="5" spans="1:38" ht="19" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1100,12 +1124,16 @@
       <c r="V5" s="12">
         <v>39</v>
       </c>
-      <c r="W5" s="4"/>
-      <c r="X5" s="10" t="s">
+      <c r="W5" s="12">
+        <v>39</v>
+      </c>
+      <c r="X5" s="12">
+        <v>39</v>
+      </c>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
@@ -1116,8 +1144,10 @@
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
       <c r="AJ5" s="1"/>
-    </row>
-    <row r="6" spans="1:36" ht="19" x14ac:dyDescent="0.2">
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+    </row>
+    <row r="6" spans="1:38" ht="19" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -1181,15 +1211,19 @@
       <c r="U6" s="11">
         <v>15</v>
       </c>
-      <c r="V6" s="12">
+      <c r="V6" s="11">
+        <v>15</v>
+      </c>
+      <c r="W6" s="11">
+        <v>15</v>
+      </c>
+      <c r="X6" s="12">
         <v>39</v>
       </c>
-      <c r="W6" s="4"/>
-      <c r="X6" s="10" t="s">
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
@@ -1200,8 +1234,10 @@
       <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
-    </row>
-    <row r="7" spans="1:36" ht="19" x14ac:dyDescent="0.2">
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+    </row>
+    <row r="7" spans="1:38" ht="19" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1265,15 +1301,19 @@
       <c r="U7" s="11">
         <v>27</v>
       </c>
-      <c r="V7" s="12">
+      <c r="V7" s="11">
+        <v>27</v>
+      </c>
+      <c r="W7" s="11">
+        <v>27</v>
+      </c>
+      <c r="X7" s="12">
         <v>40</v>
       </c>
-      <c r="W7" s="4"/>
-      <c r="X7" s="10" t="s">
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
@@ -1284,8 +1324,10 @@
       <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
       <c r="AJ7" s="1"/>
-    </row>
-    <row r="8" spans="1:36" ht="19" x14ac:dyDescent="0.2">
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+    </row>
+    <row r="8" spans="1:38" ht="19" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1349,15 +1391,19 @@
       <c r="U8" s="11">
         <v>29</v>
       </c>
-      <c r="V8" s="12">
+      <c r="V8" s="11">
+        <v>29</v>
+      </c>
+      <c r="W8" s="11">
+        <v>29</v>
+      </c>
+      <c r="X8" s="12">
         <v>41</v>
       </c>
-      <c r="W8" s="4"/>
-      <c r="X8" s="10" t="s">
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
@@ -1368,8 +1414,10 @@
       <c r="AH8" s="1"/>
       <c r="AI8" s="1"/>
       <c r="AJ8" s="1"/>
-    </row>
-    <row r="9" spans="1:36" ht="19" x14ac:dyDescent="0.2">
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
+    </row>
+    <row r="9" spans="1:38" ht="19" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1436,12 +1484,16 @@
       <c r="V9" s="12">
         <v>42</v>
       </c>
-      <c r="W9" s="4"/>
-      <c r="X9" s="10" t="s">
+      <c r="W9" s="12">
+        <v>42</v>
+      </c>
+      <c r="X9" s="12">
+        <v>42</v>
+      </c>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
@@ -1452,8 +1504,10 @@
       <c r="AH9" s="1"/>
       <c r="AI9" s="1"/>
       <c r="AJ9" s="1"/>
-    </row>
-    <row r="10" spans="1:36" ht="19" x14ac:dyDescent="0.2">
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="1"/>
+    </row>
+    <row r="10" spans="1:38" ht="19" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1517,15 +1571,19 @@
       <c r="U10" s="11">
         <v>32</v>
       </c>
-      <c r="V10" s="12">
+      <c r="V10" s="11">
+        <v>32</v>
+      </c>
+      <c r="W10" s="11">
+        <v>32</v>
+      </c>
+      <c r="X10" s="12">
         <v>43</v>
       </c>
-      <c r="W10" s="4"/>
-      <c r="X10" s="10" t="s">
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
@@ -1536,8 +1594,10 @@
       <c r="AH10" s="1"/>
       <c r="AI10" s="1"/>
       <c r="AJ10" s="1"/>
-    </row>
-    <row r="11" spans="1:36" ht="19" x14ac:dyDescent="0.2">
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
+    </row>
+    <row r="11" spans="1:38" ht="19" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1601,15 +1661,19 @@
       <c r="U11" s="11">
         <v>34</v>
       </c>
-      <c r="V11" s="12">
+      <c r="V11" s="11">
+        <v>34</v>
+      </c>
+      <c r="W11" s="11">
+        <v>34</v>
+      </c>
+      <c r="X11" s="12">
         <v>46</v>
       </c>
-      <c r="W11" s="4"/>
-      <c r="X11" s="10" t="s">
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
@@ -1620,8 +1684,10 @@
       <c r="AH11" s="1"/>
       <c r="AI11" s="1"/>
       <c r="AJ11" s="1"/>
-    </row>
-    <row r="12" spans="1:36" ht="19" x14ac:dyDescent="0.2">
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="1"/>
+    </row>
+    <row r="12" spans="1:38" ht="19" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1682,18 +1748,22 @@
       <c r="T12" s="11">
         <v>10</v>
       </c>
-      <c r="U12" s="12">
+      <c r="U12" s="11">
+        <v>10</v>
+      </c>
+      <c r="V12" s="11">
+        <v>10</v>
+      </c>
+      <c r="W12" s="12">
         <v>44</v>
       </c>
-      <c r="V12" s="13">
+      <c r="X12" s="13">
         <v>10</v>
       </c>
-      <c r="W12" s="4"/>
-      <c r="X12" s="10" t="s">
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
@@ -1704,8 +1774,10 @@
       <c r="AH12" s="1"/>
       <c r="AI12" s="1"/>
       <c r="AJ12" s="1"/>
-    </row>
-    <row r="13" spans="1:36" ht="19" x14ac:dyDescent="0.2">
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
+    </row>
+    <row r="13" spans="1:38" ht="19" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1766,18 +1838,22 @@
       <c r="T13" s="11">
         <v>10</v>
       </c>
-      <c r="U13" s="12">
-        <v>44</v>
+      <c r="U13" s="11">
+        <v>10</v>
       </c>
       <c r="V13" s="11">
         <v>10</v>
       </c>
-      <c r="W13" s="4"/>
-      <c r="X13" s="10" t="s">
+      <c r="W13" s="12">
         <v>44</v>
       </c>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
+      <c r="X13" s="11">
+        <v>10</v>
+      </c>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
@@ -1788,8 +1864,10 @@
       <c r="AH13" s="1"/>
       <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
-    </row>
-    <row r="14" spans="1:36" ht="19" x14ac:dyDescent="0.2">
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="1"/>
+    </row>
+    <row r="14" spans="1:38" ht="19" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1850,18 +1928,22 @@
       <c r="T14" s="11">
         <v>12</v>
       </c>
-      <c r="U14" s="12">
-        <v>45</v>
+      <c r="U14" s="11">
+        <v>12</v>
       </c>
       <c r="V14" s="11">
         <v>12</v>
       </c>
-      <c r="W14" s="4"/>
-      <c r="X14" s="10" t="s">
+      <c r="W14" s="12">
+        <v>45</v>
+      </c>
+      <c r="X14" s="11">
+        <v>12</v>
+      </c>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
@@ -1872,8 +1954,10 @@
       <c r="AH14" s="1"/>
       <c r="AI14" s="1"/>
       <c r="AJ14" s="1"/>
-    </row>
-    <row r="15" spans="1:36" ht="19" x14ac:dyDescent="0.2">
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
+    </row>
+    <row r="15" spans="1:38" ht="19" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -1898,14 +1982,14 @@
       <c r="T15" s="14"/>
       <c r="U15" s="14"/>
       <c r="V15" s="14"/>
-      <c r="W15" s="5" t="s">
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="X15" s="10" t="s">
+      <c r="Z15" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
@@ -1916,8 +2000,10 @@
       <c r="AH15" s="1"/>
       <c r="AI15" s="1"/>
       <c r="AJ15" s="1"/>
-    </row>
-    <row r="16" spans="1:36" ht="19" x14ac:dyDescent="0.2">
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1"/>
+    </row>
+    <row r="16" spans="1:38" ht="19" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -1942,14 +2028,14 @@
       <c r="T16" s="14"/>
       <c r="U16" s="14"/>
       <c r="V16" s="14"/>
-      <c r="W16" s="5" t="s">
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X16" s="10" t="s">
+      <c r="Z16" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
@@ -1960,8 +2046,10 @@
       <c r="AH16" s="1"/>
       <c r="AI16" s="1"/>
       <c r="AJ16" s="1"/>
-    </row>
-    <row r="17" spans="1:36" ht="19" x14ac:dyDescent="0.2">
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1"/>
+    </row>
+    <row r="17" spans="1:38" ht="19" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -1986,14 +2074,14 @@
       <c r="T17" s="14"/>
       <c r="U17" s="14"/>
       <c r="V17" s="14"/>
-      <c r="W17" s="5" t="s">
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="X17" s="10" t="s">
+      <c r="Z17" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
@@ -2004,8 +2092,10 @@
       <c r="AH17" s="1"/>
       <c r="AI17" s="1"/>
       <c r="AJ17" s="1"/>
-    </row>
-    <row r="18" spans="1:36" ht="19" x14ac:dyDescent="0.2">
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="1"/>
+    </row>
+    <row r="18" spans="1:38" ht="19" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -2030,14 +2120,14 @@
       <c r="T18" s="14"/>
       <c r="U18" s="14"/>
       <c r="V18" s="14"/>
-      <c r="W18" s="5" t="s">
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="X18" s="10" t="s">
+      <c r="Z18" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
@@ -2048,8 +2138,10 @@
       <c r="AH18" s="1"/>
       <c r="AI18" s="1"/>
       <c r="AJ18" s="1"/>
-    </row>
-    <row r="19" spans="1:36" ht="19" x14ac:dyDescent="0.2">
+      <c r="AK18" s="1"/>
+      <c r="AL18" s="1"/>
+    </row>
+    <row r="19" spans="1:38" ht="19" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -2074,14 +2166,14 @@
       <c r="T19" s="14"/>
       <c r="U19" s="14"/>
       <c r="V19" s="14"/>
-      <c r="W19" s="5" t="s">
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="X19" s="10" t="s">
+      <c r="Z19" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
@@ -2092,8 +2184,10 @@
       <c r="AH19" s="1"/>
       <c r="AI19" s="1"/>
       <c r="AJ19" s="1"/>
-    </row>
-    <row r="20" spans="1:36" ht="19" x14ac:dyDescent="0.2">
+      <c r="AK19" s="1"/>
+      <c r="AL19" s="1"/>
+    </row>
+    <row r="20" spans="1:38" ht="19" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -2118,14 +2212,14 @@
       <c r="T20" s="14"/>
       <c r="U20" s="14"/>
       <c r="V20" s="14"/>
-      <c r="W20" s="5" t="s">
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="X20" s="10" t="s">
+      <c r="Z20" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
@@ -2136,8 +2230,10 @@
       <c r="AH20" s="1"/>
       <c r="AI20" s="1"/>
       <c r="AJ20" s="1"/>
-    </row>
-    <row r="21" spans="1:36" ht="19" x14ac:dyDescent="0.2">
+      <c r="AK20" s="1"/>
+      <c r="AL20" s="1"/>
+    </row>
+    <row r="21" spans="1:38" ht="19" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -2162,14 +2258,14 @@
       <c r="T21" s="14"/>
       <c r="U21" s="14"/>
       <c r="V21" s="14"/>
-      <c r="W21" s="5" t="s">
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="X21" s="10" t="s">
+      <c r="Z21" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
@@ -2180,8 +2276,10 @@
       <c r="AH21" s="1"/>
       <c r="AI21" s="1"/>
       <c r="AJ21" s="1"/>
-    </row>
-    <row r="22" spans="1:36" ht="19" x14ac:dyDescent="0.2">
+      <c r="AK21" s="1"/>
+      <c r="AL21" s="1"/>
+    </row>
+    <row r="22" spans="1:38" ht="19" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -2206,14 +2304,14 @@
       <c r="T22" s="14"/>
       <c r="U22" s="14"/>
       <c r="V22" s="14"/>
-      <c r="W22" s="5" t="s">
+      <c r="W22" s="14"/>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="X22" s="10" t="s">
+      <c r="Z22" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
@@ -2224,8 +2322,10 @@
       <c r="AH22" s="1"/>
       <c r="AI22" s="1"/>
       <c r="AJ22" s="1"/>
-    </row>
-    <row r="23" spans="1:36" ht="19" x14ac:dyDescent="0.2">
+      <c r="AK22" s="1"/>
+      <c r="AL22" s="1"/>
+    </row>
+    <row r="23" spans="1:38" ht="19" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -2250,14 +2350,14 @@
       <c r="T23" s="14"/>
       <c r="U23" s="14"/>
       <c r="V23" s="14"/>
-      <c r="W23" s="5" t="s">
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="X23" s="10" t="s">
+      <c r="Z23" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
@@ -2268,8 +2368,10 @@
       <c r="AH23" s="1"/>
       <c r="AI23" s="1"/>
       <c r="AJ23" s="1"/>
-    </row>
-    <row r="24" spans="1:36" ht="19" x14ac:dyDescent="0.2">
+      <c r="AK23" s="1"/>
+      <c r="AL23" s="1"/>
+    </row>
+    <row r="24" spans="1:38" ht="19" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -2294,14 +2396,14 @@
       <c r="T24" s="14"/>
       <c r="U24" s="14"/>
       <c r="V24" s="14"/>
-      <c r="W24" s="5" t="s">
+      <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="X24" s="10" t="s">
+      <c r="Z24" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
@@ -2312,8 +2414,10 @@
       <c r="AH24" s="1"/>
       <c r="AI24" s="1"/>
       <c r="AJ24" s="1"/>
-    </row>
-    <row r="25" spans="1:36" ht="19" x14ac:dyDescent="0.2">
+      <c r="AK24" s="1"/>
+      <c r="AL24" s="1"/>
+    </row>
+    <row r="25" spans="1:38" ht="19" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -2338,14 +2442,14 @@
       <c r="T25" s="14"/>
       <c r="U25" s="14"/>
       <c r="V25" s="14"/>
-      <c r="W25" s="5" t="s">
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="X25" s="10" t="s">
+      <c r="Z25" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
@@ -2356,8 +2460,10 @@
       <c r="AH25" s="1"/>
       <c r="AI25" s="1"/>
       <c r="AJ25" s="1"/>
-    </row>
-    <row r="26" spans="1:36" ht="19" x14ac:dyDescent="0.2">
+      <c r="AK25" s="1"/>
+      <c r="AL25" s="1"/>
+    </row>
+    <row r="26" spans="1:38" ht="19" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -2382,14 +2488,14 @@
       <c r="T26" s="14"/>
       <c r="U26" s="14"/>
       <c r="V26" s="14"/>
-      <c r="W26" s="5" t="s">
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="X26" s="10" t="s">
+      <c r="Z26" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="Y26" s="1"/>
-      <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
@@ -2400,8 +2506,10 @@
       <c r="AH26" s="1"/>
       <c r="AI26" s="1"/>
       <c r="AJ26" s="1"/>
-    </row>
-    <row r="27" spans="1:36" ht="19" x14ac:dyDescent="0.2">
+      <c r="AK26" s="1"/>
+      <c r="AL26" s="1"/>
+    </row>
+    <row r="27" spans="1:38" ht="19" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -2426,14 +2534,14 @@
       <c r="T27" s="14"/>
       <c r="U27" s="14"/>
       <c r="V27" s="14"/>
-      <c r="W27" s="5" t="s">
+      <c r="W27" s="14"/>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="X27" s="10" t="s">
+      <c r="Z27" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
@@ -2444,8 +2552,10 @@
       <c r="AH27" s="1"/>
       <c r="AI27" s="1"/>
       <c r="AJ27" s="1"/>
-    </row>
-    <row r="28" spans="1:36" ht="19" x14ac:dyDescent="0.2">
+      <c r="AK27" s="1"/>
+      <c r="AL27" s="1"/>
+    </row>
+    <row r="28" spans="1:38" ht="19" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -2470,14 +2580,14 @@
       <c r="T28" s="14"/>
       <c r="U28" s="14"/>
       <c r="V28" s="14"/>
-      <c r="W28" s="5" t="s">
+      <c r="W28" s="14"/>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="X28" s="10" t="s">
+      <c r="Z28" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="Y28" s="1"/>
-      <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
@@ -2488,8 +2598,10 @@
       <c r="AH28" s="1"/>
       <c r="AI28" s="1"/>
       <c r="AJ28" s="1"/>
-    </row>
-    <row r="29" spans="1:36" ht="19" x14ac:dyDescent="0.2">
+      <c r="AK28" s="1"/>
+      <c r="AL28" s="1"/>
+    </row>
+    <row r="29" spans="1:38" ht="19" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -2514,14 +2626,14 @@
       <c r="T29" s="14"/>
       <c r="U29" s="14"/>
       <c r="V29" s="14"/>
-      <c r="W29" s="5" t="s">
+      <c r="W29" s="14"/>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="X29" s="10" t="s">
+      <c r="Z29" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="Y29" s="1"/>
-      <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
@@ -2532,8 +2644,10 @@
       <c r="AH29" s="1"/>
       <c r="AI29" s="1"/>
       <c r="AJ29" s="1"/>
-    </row>
-    <row r="30" spans="1:36" ht="19" x14ac:dyDescent="0.2">
+      <c r="AK29" s="1"/>
+      <c r="AL29" s="1"/>
+    </row>
+    <row r="30" spans="1:38" ht="19" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -2558,14 +2672,14 @@
       <c r="T30" s="14"/>
       <c r="U30" s="14"/>
       <c r="V30" s="14"/>
-      <c r="W30" s="5" t="s">
+      <c r="W30" s="14"/>
+      <c r="X30" s="14"/>
+      <c r="Y30" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="X30" s="10" t="s">
+      <c r="Z30" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="Y30" s="1"/>
-      <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
@@ -2576,8 +2690,10 @@
       <c r="AH30" s="1"/>
       <c r="AI30" s="1"/>
       <c r="AJ30" s="1"/>
-    </row>
-    <row r="31" spans="1:36" ht="19" x14ac:dyDescent="0.2">
+      <c r="AK30" s="1"/>
+      <c r="AL30" s="1"/>
+    </row>
+    <row r="31" spans="1:38" ht="19" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -2602,14 +2718,14 @@
       <c r="T31" s="14"/>
       <c r="U31" s="14"/>
       <c r="V31" s="14"/>
-      <c r="W31" s="5" t="s">
+      <c r="W31" s="14"/>
+      <c r="X31" s="14"/>
+      <c r="Y31" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="X31" s="10" t="s">
+      <c r="Z31" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="Y31" s="1"/>
-      <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
       <c r="AC31" s="1"/>
@@ -2620,8 +2736,10 @@
       <c r="AH31" s="1"/>
       <c r="AI31" s="1"/>
       <c r="AJ31" s="1"/>
-    </row>
-    <row r="32" spans="1:36" ht="19" x14ac:dyDescent="0.2">
+      <c r="AK31" s="1"/>
+      <c r="AL31" s="1"/>
+    </row>
+    <row r="32" spans="1:38" ht="19" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -2646,14 +2764,14 @@
       <c r="T32" s="14"/>
       <c r="U32" s="14"/>
       <c r="V32" s="14"/>
-      <c r="W32" s="5" t="s">
+      <c r="W32" s="14"/>
+      <c r="X32" s="14"/>
+      <c r="Y32" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="X32" s="10" t="s">
+      <c r="Z32" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="Y32" s="1"/>
-      <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
       <c r="AC32" s="1"/>
@@ -2664,8 +2782,10 @@
       <c r="AH32" s="1"/>
       <c r="AI32" s="1"/>
       <c r="AJ32" s="1"/>
-    </row>
-    <row r="33" spans="1:36" ht="19" x14ac:dyDescent="0.2">
+      <c r="AK32" s="1"/>
+      <c r="AL32" s="1"/>
+    </row>
+    <row r="33" spans="1:38" ht="19" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -2690,14 +2810,14 @@
       <c r="T33" s="14"/>
       <c r="U33" s="14"/>
       <c r="V33" s="14"/>
-      <c r="W33" s="5" t="s">
+      <c r="W33" s="14"/>
+      <c r="X33" s="14"/>
+      <c r="Y33" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="X33" s="10" t="s">
+      <c r="Z33" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="Y33" s="1"/>
-      <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
       <c r="AC33" s="1"/>
@@ -2708,8 +2828,10 @@
       <c r="AH33" s="1"/>
       <c r="AI33" s="1"/>
       <c r="AJ33" s="1"/>
-    </row>
-    <row r="34" spans="1:36" ht="19" x14ac:dyDescent="0.2">
+      <c r="AK33" s="1"/>
+      <c r="AL33" s="1"/>
+    </row>
+    <row r="34" spans="1:38" ht="19" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -2734,14 +2856,14 @@
       <c r="T34" s="14"/>
       <c r="U34" s="14"/>
       <c r="V34" s="14"/>
-      <c r="W34" s="5" t="s">
+      <c r="W34" s="14"/>
+      <c r="X34" s="14"/>
+      <c r="Y34" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="X34" s="10" t="s">
+      <c r="Z34" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="Y34" s="1"/>
-      <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
       <c r="AC34" s="1"/>
@@ -2752,8 +2874,10 @@
       <c r="AH34" s="1"/>
       <c r="AI34" s="1"/>
       <c r="AJ34" s="1"/>
-    </row>
-    <row r="35" spans="1:36" ht="19" x14ac:dyDescent="0.2">
+      <c r="AK34" s="1"/>
+      <c r="AL34" s="1"/>
+    </row>
+    <row r="35" spans="1:38" ht="19" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -2778,14 +2902,14 @@
       <c r="T35" s="14"/>
       <c r="U35" s="14"/>
       <c r="V35" s="14"/>
-      <c r="W35" s="6" t="s">
+      <c r="W35" s="14"/>
+      <c r="X35" s="14"/>
+      <c r="Y35" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="X35" s="10" t="s">
+      <c r="Z35" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="Y35" s="1"/>
-      <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
       <c r="AC35" s="1"/>
@@ -2796,8 +2920,10 @@
       <c r="AH35" s="1"/>
       <c r="AI35" s="1"/>
       <c r="AJ35" s="1"/>
-    </row>
-    <row r="36" spans="1:36" ht="19" x14ac:dyDescent="0.2">
+      <c r="AK35" s="1"/>
+      <c r="AL35" s="1"/>
+    </row>
+    <row r="36" spans="1:38" ht="19" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -2822,14 +2948,14 @@
       <c r="T36" s="14"/>
       <c r="U36" s="14"/>
       <c r="V36" s="14"/>
-      <c r="W36" s="5" t="s">
+      <c r="W36" s="14"/>
+      <c r="X36" s="14"/>
+      <c r="Y36" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="X36" s="10" t="s">
+      <c r="Z36" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="Y36" s="1"/>
-      <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
       <c r="AC36" s="1"/>
@@ -2840,8 +2966,10 @@
       <c r="AH36" s="1"/>
       <c r="AI36" s="1"/>
       <c r="AJ36" s="1"/>
-    </row>
-    <row r="37" spans="1:36" ht="19" x14ac:dyDescent="0.2">
+      <c r="AK36" s="1"/>
+      <c r="AL36" s="1"/>
+    </row>
+    <row r="37" spans="1:38" ht="19" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -2866,14 +2994,14 @@
       <c r="T37" s="14"/>
       <c r="U37" s="14"/>
       <c r="V37" s="14"/>
-      <c r="W37" s="5" t="s">
+      <c r="W37" s="14"/>
+      <c r="X37" s="14"/>
+      <c r="Y37" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="X37" s="10" t="s">
+      <c r="Z37" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="Y37" s="1"/>
-      <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
@@ -2884,8 +3012,10 @@
       <c r="AH37" s="1"/>
       <c r="AI37" s="1"/>
       <c r="AJ37" s="1"/>
-    </row>
-    <row r="38" spans="1:36" ht="19" x14ac:dyDescent="0.2">
+      <c r="AK37" s="1"/>
+      <c r="AL37" s="1"/>
+    </row>
+    <row r="38" spans="1:38" ht="19" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -2910,14 +3040,14 @@
       <c r="T38" s="14"/>
       <c r="U38" s="14"/>
       <c r="V38" s="14"/>
-      <c r="W38" s="5" t="s">
+      <c r="W38" s="14"/>
+      <c r="X38" s="14"/>
+      <c r="Y38" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="X38" s="10" t="s">
+      <c r="Z38" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="Y38" s="1"/>
-      <c r="Z38" s="1"/>
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
       <c r="AC38" s="1"/>
@@ -2928,8 +3058,10 @@
       <c r="AH38" s="1"/>
       <c r="AI38" s="1"/>
       <c r="AJ38" s="1"/>
-    </row>
-    <row r="39" spans="1:36" ht="19" x14ac:dyDescent="0.2">
+      <c r="AK38" s="1"/>
+      <c r="AL38" s="1"/>
+    </row>
+    <row r="39" spans="1:38" ht="19" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -2954,14 +3086,14 @@
       <c r="T39" s="15"/>
       <c r="U39" s="15"/>
       <c r="V39" s="15"/>
-      <c r="W39" s="7" t="s">
+      <c r="W39" s="15"/>
+      <c r="X39" s="15"/>
+      <c r="Y39" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="X39" s="10" t="s">
+      <c r="Z39" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="Y39" s="1"/>
-      <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
@@ -2972,8 +3104,10 @@
       <c r="AH39" s="1"/>
       <c r="AI39" s="1"/>
       <c r="AJ39" s="1"/>
-    </row>
-    <row r="40" spans="1:36" ht="19" x14ac:dyDescent="0.2">
+      <c r="AK39" s="1"/>
+      <c r="AL39" s="1"/>
+    </row>
+    <row r="40" spans="1:38" ht="19" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -2998,14 +3132,14 @@
       <c r="T40" s="15"/>
       <c r="U40" s="15"/>
       <c r="V40" s="15"/>
-      <c r="W40" s="7" t="s">
+      <c r="W40" s="15"/>
+      <c r="X40" s="15"/>
+      <c r="Y40" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="X40" s="10" t="s">
+      <c r="Z40" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="Y40" s="1"/>
-      <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
       <c r="AC40" s="1"/>
@@ -3016,8 +3150,10 @@
       <c r="AH40" s="1"/>
       <c r="AI40" s="1"/>
       <c r="AJ40" s="1"/>
-    </row>
-    <row r="41" spans="1:36" ht="19" x14ac:dyDescent="0.2">
+      <c r="AK40" s="1"/>
+      <c r="AL40" s="1"/>
+    </row>
+    <row r="41" spans="1:38" ht="19" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -3042,14 +3178,14 @@
       <c r="T41" s="15"/>
       <c r="U41" s="15"/>
       <c r="V41" s="15"/>
-      <c r="W41" s="7" t="s">
+      <c r="W41" s="15"/>
+      <c r="X41" s="15"/>
+      <c r="Y41" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="X41" s="10" t="s">
+      <c r="Z41" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="Y41" s="1"/>
-      <c r="Z41" s="1"/>
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
       <c r="AC41" s="1"/>
@@ -3060,8 +3196,10 @@
       <c r="AH41" s="1"/>
       <c r="AI41" s="1"/>
       <c r="AJ41" s="1"/>
-    </row>
-    <row r="42" spans="1:36" ht="19" x14ac:dyDescent="0.2">
+      <c r="AK41" s="1"/>
+      <c r="AL41" s="1"/>
+    </row>
+    <row r="42" spans="1:38" ht="19" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -3086,14 +3224,14 @@
       <c r="T42" s="15"/>
       <c r="U42" s="15"/>
       <c r="V42" s="15"/>
-      <c r="W42" s="7" t="s">
+      <c r="W42" s="15"/>
+      <c r="X42" s="15"/>
+      <c r="Y42" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="X42" s="10" t="s">
+      <c r="Z42" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="Y42" s="1"/>
-      <c r="Z42" s="1"/>
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
       <c r="AC42" s="1"/>
@@ -3104,8 +3242,10 @@
       <c r="AH42" s="1"/>
       <c r="AI42" s="1"/>
       <c r="AJ42" s="1"/>
-    </row>
-    <row r="43" spans="1:36" ht="19" x14ac:dyDescent="0.2">
+      <c r="AK42" s="1"/>
+      <c r="AL42" s="1"/>
+    </row>
+    <row r="43" spans="1:38" ht="19" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -3130,14 +3270,14 @@
       <c r="T43" s="15"/>
       <c r="U43" s="15"/>
       <c r="V43" s="15"/>
-      <c r="W43" s="7" t="s">
+      <c r="W43" s="15"/>
+      <c r="X43" s="15"/>
+      <c r="Y43" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X43" s="10" t="s">
+      <c r="Z43" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="Y43" s="1"/>
-      <c r="Z43" s="1"/>
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
       <c r="AC43" s="1"/>
@@ -3148,8 +3288,10 @@
       <c r="AH43" s="1"/>
       <c r="AI43" s="1"/>
       <c r="AJ43" s="1"/>
-    </row>
-    <row r="44" spans="1:36" ht="19" x14ac:dyDescent="0.2">
+      <c r="AK43" s="1"/>
+      <c r="AL43" s="1"/>
+    </row>
+    <row r="44" spans="1:38" ht="19" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -3174,14 +3316,14 @@
       <c r="T44" s="15"/>
       <c r="U44" s="15"/>
       <c r="V44" s="15"/>
-      <c r="W44" s="7" t="s">
+      <c r="W44" s="15"/>
+      <c r="X44" s="15"/>
+      <c r="Y44" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="X44" s="10" t="s">
+      <c r="Z44" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="Y44" s="1"/>
-      <c r="Z44" s="1"/>
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
       <c r="AC44" s="1"/>
@@ -3192,8 +3334,10 @@
       <c r="AH44" s="1"/>
       <c r="AI44" s="1"/>
       <c r="AJ44" s="1"/>
-    </row>
-    <row r="45" spans="1:36" ht="19" x14ac:dyDescent="0.2">
+      <c r="AK44" s="1"/>
+      <c r="AL44" s="1"/>
+    </row>
+    <row r="45" spans="1:38" ht="19" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -3218,14 +3362,14 @@
       <c r="T45" s="15"/>
       <c r="U45" s="15"/>
       <c r="V45" s="15"/>
-      <c r="W45" s="7" t="s">
+      <c r="W45" s="15"/>
+      <c r="X45" s="15"/>
+      <c r="Y45" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="X45" s="10" t="s">
+      <c r="Z45" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="Y45" s="1"/>
-      <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
       <c r="AC45" s="1"/>
@@ -3236,8 +3380,10 @@
       <c r="AH45" s="1"/>
       <c r="AI45" s="1"/>
       <c r="AJ45" s="1"/>
-    </row>
-    <row r="46" spans="1:36" ht="19" x14ac:dyDescent="0.2">
+      <c r="AK45" s="1"/>
+      <c r="AL45" s="1"/>
+    </row>
+    <row r="46" spans="1:38" ht="19" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -3262,14 +3408,14 @@
       <c r="T46" s="15"/>
       <c r="U46" s="15"/>
       <c r="V46" s="15"/>
-      <c r="W46" s="7" t="s">
+      <c r="W46" s="15"/>
+      <c r="X46" s="15"/>
+      <c r="Y46" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="X46" s="10" t="s">
+      <c r="Z46" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="Y46" s="1"/>
-      <c r="Z46" s="1"/>
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
       <c r="AC46" s="1"/>
@@ -3280,8 +3426,10 @@
       <c r="AH46" s="1"/>
       <c r="AI46" s="1"/>
       <c r="AJ46" s="1"/>
-    </row>
-    <row r="47" spans="1:36" ht="19" x14ac:dyDescent="0.2">
+      <c r="AK46" s="1"/>
+      <c r="AL46" s="1"/>
+    </row>
+    <row r="47" spans="1:38" ht="19" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>45</v>
       </c>
@@ -3306,14 +3454,14 @@
       <c r="T47" s="15"/>
       <c r="U47" s="15"/>
       <c r="V47" s="15"/>
-      <c r="W47" s="7" t="s">
+      <c r="W47" s="15"/>
+      <c r="X47" s="15"/>
+      <c r="Y47" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="X47" s="10" t="s">
+      <c r="Z47" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="Y47" s="1"/>
-      <c r="Z47" s="1"/>
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
       <c r="AC47" s="1"/>
@@ -3324,8 +3472,10 @@
       <c r="AH47" s="1"/>
       <c r="AI47" s="1"/>
       <c r="AJ47" s="1"/>
-    </row>
-    <row r="48" spans="1:36" ht="19" x14ac:dyDescent="0.2">
+      <c r="AK47" s="1"/>
+      <c r="AL47" s="1"/>
+    </row>
+    <row r="48" spans="1:38" ht="19" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>46</v>
       </c>
@@ -3350,14 +3500,14 @@
       <c r="T48" s="15"/>
       <c r="U48" s="15"/>
       <c r="V48" s="15"/>
-      <c r="W48" s="7" t="s">
+      <c r="W48" s="15"/>
+      <c r="X48" s="15"/>
+      <c r="Y48" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="X48" s="10" t="s">
+      <c r="Z48" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="Y48" s="1"/>
-      <c r="Z48" s="1"/>
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
       <c r="AC48" s="1"/>
@@ -3368,8 +3518,10 @@
       <c r="AH48" s="1"/>
       <c r="AI48" s="1"/>
       <c r="AJ48" s="1"/>
-    </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AK48" s="1"/>
+      <c r="AL48" s="1"/>
+    </row>
+    <row r="49" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -3410,8 +3562,10 @@
       <c r="AL49" s="1"/>
       <c r="AM49" s="1"/>
       <c r="AN49" s="1"/>
-    </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO49" s="1"/>
+      <c r="AP49" s="1"/>
+    </row>
+    <row r="50" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -3452,8 +3606,10 @@
       <c r="AL50" s="1"/>
       <c r="AM50" s="1"/>
       <c r="AN50" s="1"/>
-    </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO50" s="1"/>
+      <c r="AP50" s="1"/>
+    </row>
+    <row r="51" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -3494,8 +3650,10 @@
       <c r="AL51" s="1"/>
       <c r="AM51" s="1"/>
       <c r="AN51" s="1"/>
-    </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO51" s="1"/>
+      <c r="AP51" s="1"/>
+    </row>
+    <row r="52" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -3536,8 +3694,10 @@
       <c r="AL52" s="1"/>
       <c r="AM52" s="1"/>
       <c r="AN52" s="1"/>
-    </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO52" s="1"/>
+      <c r="AP52" s="1"/>
+    </row>
+    <row r="53" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -3578,8 +3738,10 @@
       <c r="AL53" s="1"/>
       <c r="AM53" s="1"/>
       <c r="AN53" s="1"/>
-    </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO53" s="1"/>
+      <c r="AP53" s="1"/>
+    </row>
+    <row r="54" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -3620,8 +3782,10 @@
       <c r="AL54" s="1"/>
       <c r="AM54" s="1"/>
       <c r="AN54" s="1"/>
-    </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO54" s="1"/>
+      <c r="AP54" s="1"/>
+    </row>
+    <row r="55" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -3662,8 +3826,10 @@
       <c r="AL55" s="1"/>
       <c r="AM55" s="1"/>
       <c r="AN55" s="1"/>
-    </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO55" s="1"/>
+      <c r="AP55" s="1"/>
+    </row>
+    <row r="56" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -3704,8 +3870,10 @@
       <c r="AL56" s="1"/>
       <c r="AM56" s="1"/>
       <c r="AN56" s="1"/>
-    </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO56" s="1"/>
+      <c r="AP56" s="1"/>
+    </row>
+    <row r="57" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -3746,8 +3914,10 @@
       <c r="AL57" s="1"/>
       <c r="AM57" s="1"/>
       <c r="AN57" s="1"/>
-    </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO57" s="1"/>
+      <c r="AP57" s="1"/>
+    </row>
+    <row r="58" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -3788,8 +3958,10 @@
       <c r="AL58" s="1"/>
       <c r="AM58" s="1"/>
       <c r="AN58" s="1"/>
-    </row>
-    <row r="59" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO58" s="1"/>
+      <c r="AP58" s="1"/>
+    </row>
+    <row r="59" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -3830,8 +4002,10 @@
       <c r="AL59" s="1"/>
       <c r="AM59" s="1"/>
       <c r="AN59" s="1"/>
-    </row>
-    <row r="60" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO59" s="1"/>
+      <c r="AP59" s="1"/>
+    </row>
+    <row r="60" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -3872,8 +4046,10 @@
       <c r="AL60" s="1"/>
       <c r="AM60" s="1"/>
       <c r="AN60" s="1"/>
-    </row>
-    <row r="61" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO60" s="1"/>
+      <c r="AP60" s="1"/>
+    </row>
+    <row r="61" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -3914,8 +4090,10 @@
       <c r="AL61" s="1"/>
       <c r="AM61" s="1"/>
       <c r="AN61" s="1"/>
-    </row>
-    <row r="62" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO61" s="1"/>
+      <c r="AP61" s="1"/>
+    </row>
+    <row r="62" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -3956,8 +4134,10 @@
       <c r="AL62" s="1"/>
       <c r="AM62" s="1"/>
       <c r="AN62" s="1"/>
-    </row>
-    <row r="63" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO62" s="1"/>
+      <c r="AP62" s="1"/>
+    </row>
+    <row r="63" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -3998,8 +4178,10 @@
       <c r="AL63" s="1"/>
       <c r="AM63" s="1"/>
       <c r="AN63" s="1"/>
-    </row>
-    <row r="64" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO63" s="1"/>
+      <c r="AP63" s="1"/>
+    </row>
+    <row r="64" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -4040,8 +4222,10 @@
       <c r="AL64" s="1"/>
       <c r="AM64" s="1"/>
       <c r="AN64" s="1"/>
-    </row>
-    <row r="65" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO64" s="1"/>
+      <c r="AP64" s="1"/>
+    </row>
+    <row r="65" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -4082,8 +4266,10 @@
       <c r="AL65" s="1"/>
       <c r="AM65" s="1"/>
       <c r="AN65" s="1"/>
-    </row>
-    <row r="66" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO65" s="1"/>
+      <c r="AP65" s="1"/>
+    </row>
+    <row r="66" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -4124,8 +4310,10 @@
       <c r="AL66" s="1"/>
       <c r="AM66" s="1"/>
       <c r="AN66" s="1"/>
-    </row>
-    <row r="67" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO66" s="1"/>
+      <c r="AP66" s="1"/>
+    </row>
+    <row r="67" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -4166,8 +4354,10 @@
       <c r="AL67" s="1"/>
       <c r="AM67" s="1"/>
       <c r="AN67" s="1"/>
-    </row>
-    <row r="68" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO67" s="1"/>
+      <c r="AP67" s="1"/>
+    </row>
+    <row r="68" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -4208,8 +4398,10 @@
       <c r="AL68" s="1"/>
       <c r="AM68" s="1"/>
       <c r="AN68" s="1"/>
-    </row>
-    <row r="69" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO68" s="1"/>
+      <c r="AP68" s="1"/>
+    </row>
+    <row r="69" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -4250,8 +4442,10 @@
       <c r="AL69" s="1"/>
       <c r="AM69" s="1"/>
       <c r="AN69" s="1"/>
-    </row>
-    <row r="70" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO69" s="1"/>
+      <c r="AP69" s="1"/>
+    </row>
+    <row r="70" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -4292,8 +4486,10 @@
       <c r="AL70" s="1"/>
       <c r="AM70" s="1"/>
       <c r="AN70" s="1"/>
-    </row>
-    <row r="71" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO70" s="1"/>
+      <c r="AP70" s="1"/>
+    </row>
+    <row r="71" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -4334,8 +4530,10 @@
       <c r="AL71" s="1"/>
       <c r="AM71" s="1"/>
       <c r="AN71" s="1"/>
-    </row>
-    <row r="72" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO71" s="1"/>
+      <c r="AP71" s="1"/>
+    </row>
+    <row r="72" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -4376,8 +4574,10 @@
       <c r="AL72" s="1"/>
       <c r="AM72" s="1"/>
       <c r="AN72" s="1"/>
-    </row>
-    <row r="73" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO72" s="1"/>
+      <c r="AP72" s="1"/>
+    </row>
+    <row r="73" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -4418,8 +4618,10 @@
       <c r="AL73" s="1"/>
       <c r="AM73" s="1"/>
       <c r="AN73" s="1"/>
-    </row>
-    <row r="74" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO73" s="1"/>
+      <c r="AP73" s="1"/>
+    </row>
+    <row r="74" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -4460,8 +4662,10 @@
       <c r="AL74" s="1"/>
       <c r="AM74" s="1"/>
       <c r="AN74" s="1"/>
-    </row>
-    <row r="75" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO74" s="1"/>
+      <c r="AP74" s="1"/>
+    </row>
+    <row r="75" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -4502,8 +4706,10 @@
       <c r="AL75" s="1"/>
       <c r="AM75" s="1"/>
       <c r="AN75" s="1"/>
-    </row>
-    <row r="76" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO75" s="1"/>
+      <c r="AP75" s="1"/>
+    </row>
+    <row r="76" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -4544,8 +4750,10 @@
       <c r="AL76" s="1"/>
       <c r="AM76" s="1"/>
       <c r="AN76" s="1"/>
-    </row>
-    <row r="77" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO76" s="1"/>
+      <c r="AP76" s="1"/>
+    </row>
+    <row r="77" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -4586,8 +4794,10 @@
       <c r="AL77" s="1"/>
       <c r="AM77" s="1"/>
       <c r="AN77" s="1"/>
-    </row>
-    <row r="78" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO77" s="1"/>
+      <c r="AP77" s="1"/>
+    </row>
+    <row r="78" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -4628,8 +4838,10 @@
       <c r="AL78" s="1"/>
       <c r="AM78" s="1"/>
       <c r="AN78" s="1"/>
-    </row>
-    <row r="79" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO78" s="1"/>
+      <c r="AP78" s="1"/>
+    </row>
+    <row r="79" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -4670,8 +4882,10 @@
       <c r="AL79" s="1"/>
       <c r="AM79" s="1"/>
       <c r="AN79" s="1"/>
-    </row>
-    <row r="80" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO79" s="1"/>
+      <c r="AP79" s="1"/>
+    </row>
+    <row r="80" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -4712,8 +4926,10 @@
       <c r="AL80" s="1"/>
       <c r="AM80" s="1"/>
       <c r="AN80" s="1"/>
-    </row>
-    <row r="81" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO80" s="1"/>
+      <c r="AP80" s="1"/>
+    </row>
+    <row r="81" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -4754,8 +4970,10 @@
       <c r="AL81" s="1"/>
       <c r="AM81" s="1"/>
       <c r="AN81" s="1"/>
-    </row>
-    <row r="82" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO81" s="1"/>
+      <c r="AP81" s="1"/>
+    </row>
+    <row r="82" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -4796,8 +5014,10 @@
       <c r="AL82" s="1"/>
       <c r="AM82" s="1"/>
       <c r="AN82" s="1"/>
-    </row>
-    <row r="83" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO82" s="1"/>
+      <c r="AP82" s="1"/>
+    </row>
+    <row r="83" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -4838,8 +5058,10 @@
       <c r="AL83" s="1"/>
       <c r="AM83" s="1"/>
       <c r="AN83" s="1"/>
-    </row>
-    <row r="84" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO83" s="1"/>
+      <c r="AP83" s="1"/>
+    </row>
+    <row r="84" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -4880,8 +5102,10 @@
       <c r="AL84" s="1"/>
       <c r="AM84" s="1"/>
       <c r="AN84" s="1"/>
-    </row>
-    <row r="85" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO84" s="1"/>
+      <c r="AP84" s="1"/>
+    </row>
+    <row r="85" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -4922,8 +5146,10 @@
       <c r="AL85" s="1"/>
       <c r="AM85" s="1"/>
       <c r="AN85" s="1"/>
-    </row>
-    <row r="86" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO85" s="1"/>
+      <c r="AP85" s="1"/>
+    </row>
+    <row r="86" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -4964,8 +5190,10 @@
       <c r="AL86" s="1"/>
       <c r="AM86" s="1"/>
       <c r="AN86" s="1"/>
-    </row>
-    <row r="87" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO86" s="1"/>
+      <c r="AP86" s="1"/>
+    </row>
+    <row r="87" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -5006,8 +5234,10 @@
       <c r="AL87" s="1"/>
       <c r="AM87" s="1"/>
       <c r="AN87" s="1"/>
-    </row>
-    <row r="88" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO87" s="1"/>
+      <c r="AP87" s="1"/>
+    </row>
+    <row r="88" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -5048,8 +5278,10 @@
       <c r="AL88" s="1"/>
       <c r="AM88" s="1"/>
       <c r="AN88" s="1"/>
-    </row>
-    <row r="89" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO88" s="1"/>
+      <c r="AP88" s="1"/>
+    </row>
+    <row r="89" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -5090,8 +5322,10 @@
       <c r="AL89" s="1"/>
       <c r="AM89" s="1"/>
       <c r="AN89" s="1"/>
-    </row>
-    <row r="90" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO89" s="1"/>
+      <c r="AP89" s="1"/>
+    </row>
+    <row r="90" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -5132,8 +5366,10 @@
       <c r="AL90" s="1"/>
       <c r="AM90" s="1"/>
       <c r="AN90" s="1"/>
-    </row>
-    <row r="91" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO90" s="1"/>
+      <c r="AP90" s="1"/>
+    </row>
+    <row r="91" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -5174,8 +5410,10 @@
       <c r="AL91" s="1"/>
       <c r="AM91" s="1"/>
       <c r="AN91" s="1"/>
-    </row>
-    <row r="92" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO91" s="1"/>
+      <c r="AP91" s="1"/>
+    </row>
+    <row r="92" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -5216,8 +5454,10 @@
       <c r="AL92" s="1"/>
       <c r="AM92" s="1"/>
       <c r="AN92" s="1"/>
-    </row>
-    <row r="93" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO92" s="1"/>
+      <c r="AP92" s="1"/>
+    </row>
+    <row r="93" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -5258,8 +5498,10 @@
       <c r="AL93" s="1"/>
       <c r="AM93" s="1"/>
       <c r="AN93" s="1"/>
-    </row>
-    <row r="94" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO93" s="1"/>
+      <c r="AP93" s="1"/>
+    </row>
+    <row r="94" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -5300,8 +5542,10 @@
       <c r="AL94" s="1"/>
       <c r="AM94" s="1"/>
       <c r="AN94" s="1"/>
-    </row>
-    <row r="95" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO94" s="1"/>
+      <c r="AP94" s="1"/>
+    </row>
+    <row r="95" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -5342,8 +5586,10 @@
       <c r="AL95" s="1"/>
       <c r="AM95" s="1"/>
       <c r="AN95" s="1"/>
-    </row>
-    <row r="96" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO95" s="1"/>
+      <c r="AP95" s="1"/>
+    </row>
+    <row r="96" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -5384,8 +5630,10 @@
       <c r="AL96" s="1"/>
       <c r="AM96" s="1"/>
       <c r="AN96" s="1"/>
-    </row>
-    <row r="97" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO96" s="1"/>
+      <c r="AP96" s="1"/>
+    </row>
+    <row r="97" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -5426,8 +5674,10 @@
       <c r="AL97" s="1"/>
       <c r="AM97" s="1"/>
       <c r="AN97" s="1"/>
-    </row>
-    <row r="98" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO97" s="1"/>
+      <c r="AP97" s="1"/>
+    </row>
+    <row r="98" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -5468,8 +5718,10 @@
       <c r="AL98" s="1"/>
       <c r="AM98" s="1"/>
       <c r="AN98" s="1"/>
-    </row>
-    <row r="99" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO98" s="1"/>
+      <c r="AP98" s="1"/>
+    </row>
+    <row r="99" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -5510,8 +5762,10 @@
       <c r="AL99" s="1"/>
       <c r="AM99" s="1"/>
       <c r="AN99" s="1"/>
-    </row>
-    <row r="100" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO99" s="1"/>
+      <c r="AP99" s="1"/>
+    </row>
+    <row r="100" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -5552,8 +5806,10 @@
       <c r="AL100" s="1"/>
       <c r="AM100" s="1"/>
       <c r="AN100" s="1"/>
-    </row>
-    <row r="101" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO100" s="1"/>
+      <c r="AP100" s="1"/>
+    </row>
+    <row r="101" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -5594,8 +5850,10 @@
       <c r="AL101" s="1"/>
       <c r="AM101" s="1"/>
       <c r="AN101" s="1"/>
-    </row>
-    <row r="102" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO101" s="1"/>
+      <c r="AP101" s="1"/>
+    </row>
+    <row r="102" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -5636,8 +5894,10 @@
       <c r="AL102" s="1"/>
       <c r="AM102" s="1"/>
       <c r="AN102" s="1"/>
-    </row>
-    <row r="103" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO102" s="1"/>
+      <c r="AP102" s="1"/>
+    </row>
+    <row r="103" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -5678,8 +5938,10 @@
       <c r="AL103" s="1"/>
       <c r="AM103" s="1"/>
       <c r="AN103" s="1"/>
-    </row>
-    <row r="104" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO103" s="1"/>
+      <c r="AP103" s="1"/>
+    </row>
+    <row r="104" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -5720,8 +5982,10 @@
       <c r="AL104" s="1"/>
       <c r="AM104" s="1"/>
       <c r="AN104" s="1"/>
-    </row>
-    <row r="105" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO104" s="1"/>
+      <c r="AP104" s="1"/>
+    </row>
+    <row r="105" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -5762,8 +6026,10 @@
       <c r="AL105" s="1"/>
       <c r="AM105" s="1"/>
       <c r="AN105" s="1"/>
-    </row>
-    <row r="106" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO105" s="1"/>
+      <c r="AP105" s="1"/>
+    </row>
+    <row r="106" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -5804,8 +6070,10 @@
       <c r="AL106" s="1"/>
       <c r="AM106" s="1"/>
       <c r="AN106" s="1"/>
-    </row>
-    <row r="107" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO106" s="1"/>
+      <c r="AP106" s="1"/>
+    </row>
+    <row r="107" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -5846,8 +6114,10 @@
       <c r="AL107" s="1"/>
       <c r="AM107" s="1"/>
       <c r="AN107" s="1"/>
-    </row>
-    <row r="108" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO107" s="1"/>
+      <c r="AP107" s="1"/>
+    </row>
+    <row r="108" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -5888,8 +6158,10 @@
       <c r="AL108" s="1"/>
       <c r="AM108" s="1"/>
       <c r="AN108" s="1"/>
-    </row>
-    <row r="109" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO108" s="1"/>
+      <c r="AP108" s="1"/>
+    </row>
+    <row r="109" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -5930,8 +6202,10 @@
       <c r="AL109" s="1"/>
       <c r="AM109" s="1"/>
       <c r="AN109" s="1"/>
-    </row>
-    <row r="110" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO109" s="1"/>
+      <c r="AP109" s="1"/>
+    </row>
+    <row r="110" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -5972,8 +6246,10 @@
       <c r="AL110" s="1"/>
       <c r="AM110" s="1"/>
       <c r="AN110" s="1"/>
-    </row>
-    <row r="111" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO110" s="1"/>
+      <c r="AP110" s="1"/>
+    </row>
+    <row r="111" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -6014,8 +6290,10 @@
       <c r="AL111" s="1"/>
       <c r="AM111" s="1"/>
       <c r="AN111" s="1"/>
-    </row>
-    <row r="112" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO111" s="1"/>
+      <c r="AP111" s="1"/>
+    </row>
+    <row r="112" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -6056,8 +6334,10 @@
       <c r="AL112" s="1"/>
       <c r="AM112" s="1"/>
       <c r="AN112" s="1"/>
-    </row>
-    <row r="113" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO112" s="1"/>
+      <c r="AP112" s="1"/>
+    </row>
+    <row r="113" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -6098,8 +6378,10 @@
       <c r="AL113" s="1"/>
       <c r="AM113" s="1"/>
       <c r="AN113" s="1"/>
-    </row>
-    <row r="114" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO113" s="1"/>
+      <c r="AP113" s="1"/>
+    </row>
+    <row r="114" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -6140,8 +6422,10 @@
       <c r="AL114" s="1"/>
       <c r="AM114" s="1"/>
       <c r="AN114" s="1"/>
-    </row>
-    <row r="115" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO114" s="1"/>
+      <c r="AP114" s="1"/>
+    </row>
+    <row r="115" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -6182,8 +6466,10 @@
       <c r="AL115" s="1"/>
       <c r="AM115" s="1"/>
       <c r="AN115" s="1"/>
-    </row>
-    <row r="116" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO115" s="1"/>
+      <c r="AP115" s="1"/>
+    </row>
+    <row r="116" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -6224,8 +6510,10 @@
       <c r="AL116" s="1"/>
       <c r="AM116" s="1"/>
       <c r="AN116" s="1"/>
-    </row>
-    <row r="117" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO116" s="1"/>
+      <c r="AP116" s="1"/>
+    </row>
+    <row r="117" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -6266,8 +6554,10 @@
       <c r="AL117" s="1"/>
       <c r="AM117" s="1"/>
       <c r="AN117" s="1"/>
-    </row>
-    <row r="118" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO117" s="1"/>
+      <c r="AP117" s="1"/>
+    </row>
+    <row r="118" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -6308,8 +6598,10 @@
       <c r="AL118" s="1"/>
       <c r="AM118" s="1"/>
       <c r="AN118" s="1"/>
-    </row>
-    <row r="119" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO118" s="1"/>
+      <c r="AP118" s="1"/>
+    </row>
+    <row r="119" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -6350,8 +6642,10 @@
       <c r="AL119" s="1"/>
       <c r="AM119" s="1"/>
       <c r="AN119" s="1"/>
-    </row>
-    <row r="120" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO119" s="1"/>
+      <c r="AP119" s="1"/>
+    </row>
+    <row r="120" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -6392,8 +6686,10 @@
       <c r="AL120" s="1"/>
       <c r="AM120" s="1"/>
       <c r="AN120" s="1"/>
-    </row>
-    <row r="121" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO120" s="1"/>
+      <c r="AP120" s="1"/>
+    </row>
+    <row r="121" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -6434,8 +6730,10 @@
       <c r="AL121" s="1"/>
       <c r="AM121" s="1"/>
       <c r="AN121" s="1"/>
-    </row>
-    <row r="122" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO121" s="1"/>
+      <c r="AP121" s="1"/>
+    </row>
+    <row r="122" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -6476,8 +6774,10 @@
       <c r="AL122" s="1"/>
       <c r="AM122" s="1"/>
       <c r="AN122" s="1"/>
-    </row>
-    <row r="123" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO122" s="1"/>
+      <c r="AP122" s="1"/>
+    </row>
+    <row r="123" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -6518,8 +6818,10 @@
       <c r="AL123" s="1"/>
       <c r="AM123" s="1"/>
       <c r="AN123" s="1"/>
-    </row>
-    <row r="124" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO123" s="1"/>
+      <c r="AP123" s="1"/>
+    </row>
+    <row r="124" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -6560,8 +6862,10 @@
       <c r="AL124" s="1"/>
       <c r="AM124" s="1"/>
       <c r="AN124" s="1"/>
-    </row>
-    <row r="125" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO124" s="1"/>
+      <c r="AP124" s="1"/>
+    </row>
+    <row r="125" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -6602,8 +6906,10 @@
       <c r="AL125" s="1"/>
       <c r="AM125" s="1"/>
       <c r="AN125" s="1"/>
-    </row>
-    <row r="126" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO125" s="1"/>
+      <c r="AP125" s="1"/>
+    </row>
+    <row r="126" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -6644,8 +6950,10 @@
       <c r="AL126" s="1"/>
       <c r="AM126" s="1"/>
       <c r="AN126" s="1"/>
-    </row>
-    <row r="127" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO126" s="1"/>
+      <c r="AP126" s="1"/>
+    </row>
+    <row r="127" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -6686,8 +6994,10 @@
       <c r="AL127" s="1"/>
       <c r="AM127" s="1"/>
       <c r="AN127" s="1"/>
-    </row>
-    <row r="128" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO127" s="1"/>
+      <c r="AP127" s="1"/>
+    </row>
+    <row r="128" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -6728,8 +7038,10 @@
       <c r="AL128" s="1"/>
       <c r="AM128" s="1"/>
       <c r="AN128" s="1"/>
-    </row>
-    <row r="129" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO128" s="1"/>
+      <c r="AP128" s="1"/>
+    </row>
+    <row r="129" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -6770,8 +7082,10 @@
       <c r="AL129" s="1"/>
       <c r="AM129" s="1"/>
       <c r="AN129" s="1"/>
-    </row>
-    <row r="130" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO129" s="1"/>
+      <c r="AP129" s="1"/>
+    </row>
+    <row r="130" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -6812,8 +7126,10 @@
       <c r="AL130" s="1"/>
       <c r="AM130" s="1"/>
       <c r="AN130" s="1"/>
-    </row>
-    <row r="131" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO130" s="1"/>
+      <c r="AP130" s="1"/>
+    </row>
+    <row r="131" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -6854,8 +7170,10 @@
       <c r="AL131" s="1"/>
       <c r="AM131" s="1"/>
       <c r="AN131" s="1"/>
-    </row>
-    <row r="132" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO131" s="1"/>
+      <c r="AP131" s="1"/>
+    </row>
+    <row r="132" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -6896,8 +7214,10 @@
       <c r="AL132" s="1"/>
       <c r="AM132" s="1"/>
       <c r="AN132" s="1"/>
-    </row>
-    <row r="133" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO132" s="1"/>
+      <c r="AP132" s="1"/>
+    </row>
+    <row r="133" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -6938,8 +7258,10 @@
       <c r="AL133" s="1"/>
       <c r="AM133" s="1"/>
       <c r="AN133" s="1"/>
-    </row>
-    <row r="134" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO133" s="1"/>
+      <c r="AP133" s="1"/>
+    </row>
+    <row r="134" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -6980,8 +7302,10 @@
       <c r="AL134" s="1"/>
       <c r="AM134" s="1"/>
       <c r="AN134" s="1"/>
-    </row>
-    <row r="135" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO134" s="1"/>
+      <c r="AP134" s="1"/>
+    </row>
+    <row r="135" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -7022,8 +7346,10 @@
       <c r="AL135" s="1"/>
       <c r="AM135" s="1"/>
       <c r="AN135" s="1"/>
-    </row>
-    <row r="136" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO135" s="1"/>
+      <c r="AP135" s="1"/>
+    </row>
+    <row r="136" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -7064,8 +7390,10 @@
       <c r="AL136" s="1"/>
       <c r="AM136" s="1"/>
       <c r="AN136" s="1"/>
-    </row>
-    <row r="137" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO136" s="1"/>
+      <c r="AP136" s="1"/>
+    </row>
+    <row r="137" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -7106,8 +7434,10 @@
       <c r="AL137" s="1"/>
       <c r="AM137" s="1"/>
       <c r="AN137" s="1"/>
-    </row>
-    <row r="138" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO137" s="1"/>
+      <c r="AP137" s="1"/>
+    </row>
+    <row r="138" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -7148,8 +7478,10 @@
       <c r="AL138" s="1"/>
       <c r="AM138" s="1"/>
       <c r="AN138" s="1"/>
-    </row>
-    <row r="139" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO138" s="1"/>
+      <c r="AP138" s="1"/>
+    </row>
+    <row r="139" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -7190,8 +7522,10 @@
       <c r="AL139" s="1"/>
       <c r="AM139" s="1"/>
       <c r="AN139" s="1"/>
-    </row>
-    <row r="140" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO139" s="1"/>
+      <c r="AP139" s="1"/>
+    </row>
+    <row r="140" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -7232,8 +7566,10 @@
       <c r="AL140" s="1"/>
       <c r="AM140" s="1"/>
       <c r="AN140" s="1"/>
-    </row>
-    <row r="141" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO140" s="1"/>
+      <c r="AP140" s="1"/>
+    </row>
+    <row r="141" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -7274,8 +7610,10 @@
       <c r="AL141" s="1"/>
       <c r="AM141" s="1"/>
       <c r="AN141" s="1"/>
-    </row>
-    <row r="142" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO141" s="1"/>
+      <c r="AP141" s="1"/>
+    </row>
+    <row r="142" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -7316,8 +7654,10 @@
       <c r="AL142" s="1"/>
       <c r="AM142" s="1"/>
       <c r="AN142" s="1"/>
-    </row>
-    <row r="143" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO142" s="1"/>
+      <c r="AP142" s="1"/>
+    </row>
+    <row r="143" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -7358,8 +7698,10 @@
       <c r="AL143" s="1"/>
       <c r="AM143" s="1"/>
       <c r="AN143" s="1"/>
-    </row>
-    <row r="144" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO143" s="1"/>
+      <c r="AP143" s="1"/>
+    </row>
+    <row r="144" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -7400,8 +7742,10 @@
       <c r="AL144" s="1"/>
       <c r="AM144" s="1"/>
       <c r="AN144" s="1"/>
-    </row>
-    <row r="145" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO144" s="1"/>
+      <c r="AP144" s="1"/>
+    </row>
+    <row r="145" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -7442,8 +7786,10 @@
       <c r="AL145" s="1"/>
       <c r="AM145" s="1"/>
       <c r="AN145" s="1"/>
-    </row>
-    <row r="146" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO145" s="1"/>
+      <c r="AP145" s="1"/>
+    </row>
+    <row r="146" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -7484,8 +7830,10 @@
       <c r="AL146" s="1"/>
       <c r="AM146" s="1"/>
       <c r="AN146" s="1"/>
-    </row>
-    <row r="147" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO146" s="1"/>
+      <c r="AP146" s="1"/>
+    </row>
+    <row r="147" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -7526,8 +7874,10 @@
       <c r="AL147" s="1"/>
       <c r="AM147" s="1"/>
       <c r="AN147" s="1"/>
-    </row>
-    <row r="148" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO147" s="1"/>
+      <c r="AP147" s="1"/>
+    </row>
+    <row r="148" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -7568,8 +7918,10 @@
       <c r="AL148" s="1"/>
       <c r="AM148" s="1"/>
       <c r="AN148" s="1"/>
-    </row>
-    <row r="149" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO148" s="1"/>
+      <c r="AP148" s="1"/>
+    </row>
+    <row r="149" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -7610,8 +7962,10 @@
       <c r="AL149" s="1"/>
       <c r="AM149" s="1"/>
       <c r="AN149" s="1"/>
-    </row>
-    <row r="150" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO149" s="1"/>
+      <c r="AP149" s="1"/>
+    </row>
+    <row r="150" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -7652,8 +8006,10 @@
       <c r="AL150" s="1"/>
       <c r="AM150" s="1"/>
       <c r="AN150" s="1"/>
-    </row>
-    <row r="151" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO150" s="1"/>
+      <c r="AP150" s="1"/>
+    </row>
+    <row r="151" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -7694,8 +8050,10 @@
       <c r="AL151" s="1"/>
       <c r="AM151" s="1"/>
       <c r="AN151" s="1"/>
-    </row>
-    <row r="152" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO151" s="1"/>
+      <c r="AP151" s="1"/>
+    </row>
+    <row r="152" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -7736,8 +8094,10 @@
       <c r="AL152" s="1"/>
       <c r="AM152" s="1"/>
       <c r="AN152" s="1"/>
-    </row>
-    <row r="153" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO152" s="1"/>
+      <c r="AP152" s="1"/>
+    </row>
+    <row r="153" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -7778,8 +8138,10 @@
       <c r="AL153" s="1"/>
       <c r="AM153" s="1"/>
       <c r="AN153" s="1"/>
-    </row>
-    <row r="154" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO153" s="1"/>
+      <c r="AP153" s="1"/>
+    </row>
+    <row r="154" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -7820,8 +8182,10 @@
       <c r="AL154" s="1"/>
       <c r="AM154" s="1"/>
       <c r="AN154" s="1"/>
-    </row>
-    <row r="155" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO154" s="1"/>
+      <c r="AP154" s="1"/>
+    </row>
+    <row r="155" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -7862,8 +8226,10 @@
       <c r="AL155" s="1"/>
       <c r="AM155" s="1"/>
       <c r="AN155" s="1"/>
-    </row>
-    <row r="156" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO155" s="1"/>
+      <c r="AP155" s="1"/>
+    </row>
+    <row r="156" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -7904,8 +8270,10 @@
       <c r="AL156" s="1"/>
       <c r="AM156" s="1"/>
       <c r="AN156" s="1"/>
-    </row>
-    <row r="157" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO156" s="1"/>
+      <c r="AP156" s="1"/>
+    </row>
+    <row r="157" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -7946,8 +8314,10 @@
       <c r="AL157" s="1"/>
       <c r="AM157" s="1"/>
       <c r="AN157" s="1"/>
-    </row>
-    <row r="158" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO157" s="1"/>
+      <c r="AP157" s="1"/>
+    </row>
+    <row r="158" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -7988,8 +8358,10 @@
       <c r="AL158" s="1"/>
       <c r="AM158" s="1"/>
       <c r="AN158" s="1"/>
-    </row>
-    <row r="159" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO158" s="1"/>
+      <c r="AP158" s="1"/>
+    </row>
+    <row r="159" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -8030,8 +8402,10 @@
       <c r="AL159" s="1"/>
       <c r="AM159" s="1"/>
       <c r="AN159" s="1"/>
-    </row>
-    <row r="160" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO159" s="1"/>
+      <c r="AP159" s="1"/>
+    </row>
+    <row r="160" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -8072,8 +8446,10 @@
       <c r="AL160" s="1"/>
       <c r="AM160" s="1"/>
       <c r="AN160" s="1"/>
-    </row>
-    <row r="161" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO160" s="1"/>
+      <c r="AP160" s="1"/>
+    </row>
+    <row r="161" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -8114,8 +8490,10 @@
       <c r="AL161" s="1"/>
       <c r="AM161" s="1"/>
       <c r="AN161" s="1"/>
-    </row>
-    <row r="162" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO161" s="1"/>
+      <c r="AP161" s="1"/>
+    </row>
+    <row r="162" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -8156,8 +8534,10 @@
       <c r="AL162" s="1"/>
       <c r="AM162" s="1"/>
       <c r="AN162" s="1"/>
-    </row>
-    <row r="163" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO162" s="1"/>
+      <c r="AP162" s="1"/>
+    </row>
+    <row r="163" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -8198,8 +8578,10 @@
       <c r="AL163" s="1"/>
       <c r="AM163" s="1"/>
       <c r="AN163" s="1"/>
-    </row>
-    <row r="164" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO163" s="1"/>
+      <c r="AP163" s="1"/>
+    </row>
+    <row r="164" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -8240,8 +8622,10 @@
       <c r="AL164" s="1"/>
       <c r="AM164" s="1"/>
       <c r="AN164" s="1"/>
-    </row>
-    <row r="165" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO164" s="1"/>
+      <c r="AP164" s="1"/>
+    </row>
+    <row r="165" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -8282,8 +8666,10 @@
       <c r="AL165" s="1"/>
       <c r="AM165" s="1"/>
       <c r="AN165" s="1"/>
-    </row>
-    <row r="166" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO165" s="1"/>
+      <c r="AP165" s="1"/>
+    </row>
+    <row r="166" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -8324,8 +8710,10 @@
       <c r="AL166" s="1"/>
       <c r="AM166" s="1"/>
       <c r="AN166" s="1"/>
-    </row>
-    <row r="167" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO166" s="1"/>
+      <c r="AP166" s="1"/>
+    </row>
+    <row r="167" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -8366,8 +8754,10 @@
       <c r="AL167" s="1"/>
       <c r="AM167" s="1"/>
       <c r="AN167" s="1"/>
-    </row>
-    <row r="168" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO167" s="1"/>
+      <c r="AP167" s="1"/>
+    </row>
+    <row r="168" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -8408,8 +8798,10 @@
       <c r="AL168" s="1"/>
       <c r="AM168" s="1"/>
       <c r="AN168" s="1"/>
-    </row>
-    <row r="169" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO168" s="1"/>
+      <c r="AP168" s="1"/>
+    </row>
+    <row r="169" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -8450,8 +8842,10 @@
       <c r="AL169" s="1"/>
       <c r="AM169" s="1"/>
       <c r="AN169" s="1"/>
-    </row>
-    <row r="170" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO169" s="1"/>
+      <c r="AP169" s="1"/>
+    </row>
+    <row r="170" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -8492,8 +8886,10 @@
       <c r="AL170" s="1"/>
       <c r="AM170" s="1"/>
       <c r="AN170" s="1"/>
-    </row>
-    <row r="171" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO170" s="1"/>
+      <c r="AP170" s="1"/>
+    </row>
+    <row r="171" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -8534,8 +8930,10 @@
       <c r="AL171" s="1"/>
       <c r="AM171" s="1"/>
       <c r="AN171" s="1"/>
-    </row>
-    <row r="172" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO171" s="1"/>
+      <c r="AP171" s="1"/>
+    </row>
+    <row r="172" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -8576,8 +8974,10 @@
       <c r="AL172" s="1"/>
       <c r="AM172" s="1"/>
       <c r="AN172" s="1"/>
-    </row>
-    <row r="173" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO172" s="1"/>
+      <c r="AP172" s="1"/>
+    </row>
+    <row r="173" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -8618,8 +9018,10 @@
       <c r="AL173" s="1"/>
       <c r="AM173" s="1"/>
       <c r="AN173" s="1"/>
-    </row>
-    <row r="174" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO173" s="1"/>
+      <c r="AP173" s="1"/>
+    </row>
+    <row r="174" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -8660,8 +9062,10 @@
       <c r="AL174" s="1"/>
       <c r="AM174" s="1"/>
       <c r="AN174" s="1"/>
-    </row>
-    <row r="175" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO174" s="1"/>
+      <c r="AP174" s="1"/>
+    </row>
+    <row r="175" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -8702,8 +9106,10 @@
       <c r="AL175" s="1"/>
       <c r="AM175" s="1"/>
       <c r="AN175" s="1"/>
-    </row>
-    <row r="176" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO175" s="1"/>
+      <c r="AP175" s="1"/>
+    </row>
+    <row r="176" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -8744,8 +9150,10 @@
       <c r="AL176" s="1"/>
       <c r="AM176" s="1"/>
       <c r="AN176" s="1"/>
-    </row>
-    <row r="177" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO176" s="1"/>
+      <c r="AP176" s="1"/>
+    </row>
+    <row r="177" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -8786,8 +9194,10 @@
       <c r="AL177" s="1"/>
       <c r="AM177" s="1"/>
       <c r="AN177" s="1"/>
-    </row>
-    <row r="178" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO177" s="1"/>
+      <c r="AP177" s="1"/>
+    </row>
+    <row r="178" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -8828,8 +9238,10 @@
       <c r="AL178" s="1"/>
       <c r="AM178" s="1"/>
       <c r="AN178" s="1"/>
-    </row>
-    <row r="179" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO178" s="1"/>
+      <c r="AP178" s="1"/>
+    </row>
+    <row r="179" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -8870,8 +9282,10 @@
       <c r="AL179" s="1"/>
       <c r="AM179" s="1"/>
       <c r="AN179" s="1"/>
-    </row>
-    <row r="180" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO179" s="1"/>
+      <c r="AP179" s="1"/>
+    </row>
+    <row r="180" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -8912,8 +9326,10 @@
       <c r="AL180" s="1"/>
       <c r="AM180" s="1"/>
       <c r="AN180" s="1"/>
-    </row>
-    <row r="181" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO180" s="1"/>
+      <c r="AP180" s="1"/>
+    </row>
+    <row r="181" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -8954,8 +9370,10 @@
       <c r="AL181" s="1"/>
       <c r="AM181" s="1"/>
       <c r="AN181" s="1"/>
-    </row>
-    <row r="182" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO181" s="1"/>
+      <c r="AP181" s="1"/>
+    </row>
+    <row r="182" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -8996,8 +9414,10 @@
       <c r="AL182" s="1"/>
       <c r="AM182" s="1"/>
       <c r="AN182" s="1"/>
-    </row>
-    <row r="183" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO182" s="1"/>
+      <c r="AP182" s="1"/>
+    </row>
+    <row r="183" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -9038,8 +9458,10 @@
       <c r="AL183" s="1"/>
       <c r="AM183" s="1"/>
       <c r="AN183" s="1"/>
-    </row>
-    <row r="184" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO183" s="1"/>
+      <c r="AP183" s="1"/>
+    </row>
+    <row r="184" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -9080,8 +9502,10 @@
       <c r="AL184" s="1"/>
       <c r="AM184" s="1"/>
       <c r="AN184" s="1"/>
-    </row>
-    <row r="185" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO184" s="1"/>
+      <c r="AP184" s="1"/>
+    </row>
+    <row r="185" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -9122,8 +9546,10 @@
       <c r="AL185" s="1"/>
       <c r="AM185" s="1"/>
       <c r="AN185" s="1"/>
-    </row>
-    <row r="186" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO185" s="1"/>
+      <c r="AP185" s="1"/>
+    </row>
+    <row r="186" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -9164,8 +9590,10 @@
       <c r="AL186" s="1"/>
       <c r="AM186" s="1"/>
       <c r="AN186" s="1"/>
-    </row>
-    <row r="187" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO186" s="1"/>
+      <c r="AP186" s="1"/>
+    </row>
+    <row r="187" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -9206,8 +9634,10 @@
       <c r="AL187" s="1"/>
       <c r="AM187" s="1"/>
       <c r="AN187" s="1"/>
-    </row>
-    <row r="188" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO187" s="1"/>
+      <c r="AP187" s="1"/>
+    </row>
+    <row r="188" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -9248,8 +9678,10 @@
       <c r="AL188" s="1"/>
       <c r="AM188" s="1"/>
       <c r="AN188" s="1"/>
-    </row>
-    <row r="189" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO188" s="1"/>
+      <c r="AP188" s="1"/>
+    </row>
+    <row r="189" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -9290,8 +9722,10 @@
       <c r="AL189" s="1"/>
       <c r="AM189" s="1"/>
       <c r="AN189" s="1"/>
-    </row>
-    <row r="190" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO189" s="1"/>
+      <c r="AP189" s="1"/>
+    </row>
+    <row r="190" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -9332,8 +9766,10 @@
       <c r="AL190" s="1"/>
       <c r="AM190" s="1"/>
       <c r="AN190" s="1"/>
-    </row>
-    <row r="191" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO190" s="1"/>
+      <c r="AP190" s="1"/>
+    </row>
+    <row r="191" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -9374,8 +9810,10 @@
       <c r="AL191" s="1"/>
       <c r="AM191" s="1"/>
       <c r="AN191" s="1"/>
-    </row>
-    <row r="192" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO191" s="1"/>
+      <c r="AP191" s="1"/>
+    </row>
+    <row r="192" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -9416,8 +9854,10 @@
       <c r="AL192" s="1"/>
       <c r="AM192" s="1"/>
       <c r="AN192" s="1"/>
-    </row>
-    <row r="193" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO192" s="1"/>
+      <c r="AP192" s="1"/>
+    </row>
+    <row r="193" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -9458,8 +9898,10 @@
       <c r="AL193" s="1"/>
       <c r="AM193" s="1"/>
       <c r="AN193" s="1"/>
-    </row>
-    <row r="194" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO193" s="1"/>
+      <c r="AP193" s="1"/>
+    </row>
+    <row r="194" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -9500,8 +9942,10 @@
       <c r="AL194" s="1"/>
       <c r="AM194" s="1"/>
       <c r="AN194" s="1"/>
-    </row>
-    <row r="195" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO194" s="1"/>
+      <c r="AP194" s="1"/>
+    </row>
+    <row r="195" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -9542,8 +9986,10 @@
       <c r="AL195" s="1"/>
       <c r="AM195" s="1"/>
       <c r="AN195" s="1"/>
-    </row>
-    <row r="196" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO195" s="1"/>
+      <c r="AP195" s="1"/>
+    </row>
+    <row r="196" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -9584,8 +10030,10 @@
       <c r="AL196" s="1"/>
       <c r="AM196" s="1"/>
       <c r="AN196" s="1"/>
-    </row>
-    <row r="197" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO196" s="1"/>
+      <c r="AP196" s="1"/>
+    </row>
+    <row r="197" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -9626,9 +10074,11 @@
       <c r="AL197" s="1"/>
       <c r="AM197" s="1"/>
       <c r="AN197" s="1"/>
+      <c r="AO197" s="1"/>
+      <c r="AP197" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="42" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup scale="38" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/transition_table.xlsx
+++ b/transition_table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agustin.quintanar/Desktop/tec/compiler/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agus/Desktop/TEC/TENTH SEMESTER/compiler_c--/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E149C9D-2CD1-7C44-89A6-8A185CF6C674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9604F0C-81A3-3D47-9297-C35AA75F17C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{C87F3C94-E967-7646-AB38-6573D1AFE849}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{C87F3C94-E967-7646-AB38-6573D1AFE849}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -158,9 +158,6 @@
     <t>ERROR "= =="</t>
   </si>
   <si>
-    <t>ERROR EOF</t>
-  </si>
-  <si>
     <t>ERROR INVALID COMMENT</t>
   </si>
   <si>
@@ -183,6 +180,9 @@
   </si>
   <si>
     <t>ACCEPTING</t>
+  </si>
+  <si>
+    <t>INVALID STRING</t>
   </si>
 </sst>
 </file>
@@ -315,16 +315,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -336,28 +336,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -682,10 +688,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AP197"/>
+  <dimension ref="A1:AP198"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -697,7 +703,7 @@
   <sheetData>
     <row r="1" spans="1:38" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>16</v>
@@ -769,10 +775,10 @@
         <v>18</v>
       </c>
       <c r="Y1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z1" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="Z1" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
@@ -791,78 +797,78 @@
       <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="10">
         <v>1</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>2</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <v>16</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="10">
         <v>17</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="10">
         <v>18</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="10">
         <v>9</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="10">
         <v>8</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="10">
         <v>7</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2" s="10">
         <v>25</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2" s="10">
         <v>26</v>
       </c>
-      <c r="L2" s="11">
+      <c r="L2" s="10">
         <v>12</v>
       </c>
-      <c r="M2" s="12">
+      <c r="M2" s="11">
         <v>46</v>
       </c>
-      <c r="N2" s="11">
+      <c r="N2" s="10">
         <v>19</v>
       </c>
-      <c r="O2" s="11">
+      <c r="O2" s="10">
         <v>20</v>
       </c>
-      <c r="P2" s="11">
+      <c r="P2" s="10">
         <v>21</v>
       </c>
-      <c r="Q2" s="11">
+      <c r="Q2" s="10">
         <v>22</v>
       </c>
-      <c r="R2" s="11">
+      <c r="R2" s="10">
         <v>23</v>
       </c>
-      <c r="S2" s="11">
+      <c r="S2" s="10">
         <v>24</v>
       </c>
-      <c r="T2" s="11">
+      <c r="T2" s="10">
         <v>5</v>
       </c>
-      <c r="U2" s="11">
+      <c r="U2" s="10">
         <v>6</v>
       </c>
-      <c r="V2" s="11">
+      <c r="V2" s="10">
         <v>0</v>
       </c>
-      <c r="W2" s="11">
+      <c r="W2" s="10">
         <v>0</v>
       </c>
-      <c r="X2" s="12">
+      <c r="X2" s="11">
         <v>46</v>
       </c>
       <c r="Y2" s="4"/>
-      <c r="Z2" s="10" t="s">
-        <v>44</v>
+      <c r="Z2" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
@@ -881,78 +887,78 @@
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>1</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>1</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>13</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>13</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <v>13</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="10">
         <v>13</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="10">
         <v>13</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="10">
         <v>13</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="10">
         <v>13</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="10">
         <v>13</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="10">
         <v>13</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="11">
         <v>37</v>
       </c>
-      <c r="N3" s="11">
+      <c r="N3" s="10">
         <v>13</v>
       </c>
-      <c r="O3" s="11">
+      <c r="O3" s="10">
         <v>13</v>
       </c>
-      <c r="P3" s="11">
+      <c r="P3" s="10">
         <v>13</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="Q3" s="10">
         <v>13</v>
       </c>
-      <c r="R3" s="11">
+      <c r="R3" s="10">
         <v>13</v>
       </c>
-      <c r="S3" s="11">
+      <c r="S3" s="10">
         <v>13</v>
       </c>
-      <c r="T3" s="11">
+      <c r="T3" s="10">
         <v>13</v>
       </c>
-      <c r="U3" s="11">
+      <c r="U3" s="10">
         <v>13</v>
       </c>
-      <c r="V3" s="11">
+      <c r="V3" s="10">
         <v>13</v>
       </c>
-      <c r="W3" s="11">
+      <c r="W3" s="10">
         <v>13</v>
       </c>
-      <c r="X3" s="12">
+      <c r="X3" s="11">
         <v>37</v>
       </c>
       <c r="Y3" s="4"/>
-      <c r="Z3" s="10" t="s">
-        <v>44</v>
+      <c r="Z3" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
@@ -971,78 +977,78 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="14">
+        <v>14</v>
+      </c>
+      <c r="C4" s="10">
+        <v>2</v>
+      </c>
+      <c r="D4" s="10">
+        <v>14</v>
+      </c>
+      <c r="E4" s="10">
+        <v>14</v>
+      </c>
+      <c r="F4" s="10">
+        <v>14</v>
+      </c>
+      <c r="G4" s="10">
+        <v>14</v>
+      </c>
+      <c r="H4" s="10">
+        <v>14</v>
+      </c>
+      <c r="I4" s="10">
+        <v>14</v>
+      </c>
+      <c r="J4" s="10">
+        <v>14</v>
+      </c>
+      <c r="K4" s="10">
+        <v>14</v>
+      </c>
+      <c r="L4" s="10">
+        <v>14</v>
+      </c>
+      <c r="M4" s="10">
+        <v>3</v>
+      </c>
+      <c r="N4" s="10">
+        <v>14</v>
+      </c>
+      <c r="O4" s="10">
+        <v>14</v>
+      </c>
+      <c r="P4" s="10">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>14</v>
+      </c>
+      <c r="R4" s="10">
+        <v>14</v>
+      </c>
+      <c r="S4" s="10">
+        <v>14</v>
+      </c>
+      <c r="T4" s="10">
+        <v>14</v>
+      </c>
+      <c r="U4" s="10">
+        <v>14</v>
+      </c>
+      <c r="V4" s="10">
+        <v>14</v>
+      </c>
+      <c r="W4" s="10">
+        <v>14</v>
+      </c>
+      <c r="X4" s="11">
         <v>38</v>
       </c>
-      <c r="C4" s="11">
-        <v>2</v>
-      </c>
-      <c r="D4" s="11">
-        <v>14</v>
-      </c>
-      <c r="E4" s="11">
-        <v>14</v>
-      </c>
-      <c r="F4" s="11">
-        <v>14</v>
-      </c>
-      <c r="G4" s="11">
-        <v>14</v>
-      </c>
-      <c r="H4" s="11">
-        <v>14</v>
-      </c>
-      <c r="I4" s="11">
-        <v>14</v>
-      </c>
-      <c r="J4" s="11">
-        <v>14</v>
-      </c>
-      <c r="K4" s="11">
-        <v>14</v>
-      </c>
-      <c r="L4" s="11">
-        <v>14</v>
-      </c>
-      <c r="M4" s="11">
-        <v>3</v>
-      </c>
-      <c r="N4" s="11">
-        <v>14</v>
-      </c>
-      <c r="O4" s="11">
-        <v>14</v>
-      </c>
-      <c r="P4" s="11">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="11">
-        <v>14</v>
-      </c>
-      <c r="R4" s="11">
-        <v>14</v>
-      </c>
-      <c r="S4" s="11">
-        <v>14</v>
-      </c>
-      <c r="T4" s="11">
-        <v>14</v>
-      </c>
-      <c r="U4" s="11">
-        <v>14</v>
-      </c>
-      <c r="V4" s="11">
-        <v>14</v>
-      </c>
-      <c r="W4" s="11">
-        <v>14</v>
-      </c>
-      <c r="X4" s="12">
-        <v>38</v>
-      </c>
       <c r="Y4" s="4"/>
-      <c r="Z4" s="10" t="s">
-        <v>44</v>
+      <c r="Z4" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
@@ -1061,78 +1067,78 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <v>39</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>4</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>39</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <v>39</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="11">
         <v>39</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="11">
         <v>39</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="11">
         <v>39</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="11">
         <v>39</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="11">
         <v>39</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="11">
         <v>39</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="11">
         <v>39</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="11">
         <v>39</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="11">
         <v>39</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="11">
         <v>39</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="11">
         <v>39</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="Q5" s="11">
         <v>39</v>
       </c>
-      <c r="R5" s="12">
+      <c r="R5" s="11">
         <v>39</v>
       </c>
-      <c r="S5" s="12">
+      <c r="S5" s="11">
         <v>39</v>
       </c>
-      <c r="T5" s="12">
+      <c r="T5" s="11">
         <v>39</v>
       </c>
-      <c r="U5" s="12">
+      <c r="U5" s="11">
         <v>39</v>
       </c>
-      <c r="V5" s="12">
+      <c r="V5" s="11">
         <v>39</v>
       </c>
-      <c r="W5" s="12">
+      <c r="W5" s="11">
         <v>39</v>
       </c>
-      <c r="X5" s="12">
+      <c r="X5" s="11">
         <v>39</v>
       </c>
       <c r="Y5" s="4"/>
-      <c r="Z5" s="10" t="s">
-        <v>44</v>
+      <c r="Z5" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
@@ -1151,78 +1157,78 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>39</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>4</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>15</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>15</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>15</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <v>15</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="10">
         <v>15</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="10">
         <v>15</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="10">
         <v>15</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="10">
         <v>15</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="10">
         <v>15</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="11">
         <v>39</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="10">
         <v>15</v>
       </c>
-      <c r="O6" s="11">
+      <c r="O6" s="10">
         <v>15</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="10">
         <v>15</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="Q6" s="10">
         <v>15</v>
       </c>
-      <c r="R6" s="11">
+      <c r="R6" s="10">
         <v>15</v>
       </c>
-      <c r="S6" s="11">
+      <c r="S6" s="10">
         <v>15</v>
       </c>
-      <c r="T6" s="11">
+      <c r="T6" s="10">
         <v>15</v>
       </c>
-      <c r="U6" s="11">
+      <c r="U6" s="10">
         <v>15</v>
       </c>
-      <c r="V6" s="11">
+      <c r="V6" s="10">
         <v>15</v>
       </c>
-      <c r="W6" s="11">
+      <c r="W6" s="10">
         <v>15</v>
       </c>
-      <c r="X6" s="12">
+      <c r="X6" s="11">
         <v>39</v>
       </c>
       <c r="Y6" s="4"/>
-      <c r="Z6" s="10" t="s">
-        <v>44</v>
+      <c r="Z6" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
@@ -1241,78 +1247,78 @@
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>27</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>27</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>27</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>27</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>27</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <v>27</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="10">
         <v>28</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="10">
         <v>27</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="10">
         <v>27</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="10">
         <v>27</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="10">
         <v>27</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="11">
         <v>40</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N7" s="10">
         <v>27</v>
       </c>
-      <c r="O7" s="11">
+      <c r="O7" s="10">
         <v>27</v>
       </c>
-      <c r="P7" s="11">
+      <c r="P7" s="10">
         <v>27</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="Q7" s="10">
         <v>27</v>
       </c>
-      <c r="R7" s="11">
+      <c r="R7" s="10">
         <v>27</v>
       </c>
-      <c r="S7" s="11">
+      <c r="S7" s="10">
         <v>27</v>
       </c>
-      <c r="T7" s="11">
+      <c r="T7" s="10">
         <v>27</v>
       </c>
-      <c r="U7" s="11">
+      <c r="U7" s="10">
         <v>27</v>
       </c>
-      <c r="V7" s="11">
+      <c r="V7" s="10">
         <v>27</v>
       </c>
-      <c r="W7" s="11">
+      <c r="W7" s="10">
         <v>27</v>
       </c>
-      <c r="X7" s="12">
+      <c r="X7" s="11">
         <v>40</v>
       </c>
       <c r="Y7" s="4"/>
-      <c r="Z7" s="10" t="s">
-        <v>44</v>
+      <c r="Z7" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
@@ -1331,78 +1337,78 @@
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>29</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>29</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>29</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>29</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>29</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="10">
         <v>29</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="10">
         <v>30</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="10">
         <v>29</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="10">
         <v>29</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="10">
         <v>29</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="10">
         <v>29</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="11">
         <v>41</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N8" s="10">
         <v>29</v>
       </c>
-      <c r="O8" s="11">
+      <c r="O8" s="10">
         <v>29</v>
       </c>
-      <c r="P8" s="11">
+      <c r="P8" s="10">
         <v>29</v>
       </c>
-      <c r="Q8" s="11">
+      <c r="Q8" s="10">
         <v>29</v>
       </c>
-      <c r="R8" s="11">
+      <c r="R8" s="10">
         <v>29</v>
       </c>
-      <c r="S8" s="11">
+      <c r="S8" s="10">
         <v>29</v>
       </c>
-      <c r="T8" s="11">
+      <c r="T8" s="10">
         <v>29</v>
       </c>
-      <c r="U8" s="11">
+      <c r="U8" s="10">
         <v>29</v>
       </c>
-      <c r="V8" s="11">
+      <c r="V8" s="10">
         <v>29</v>
       </c>
-      <c r="W8" s="11">
+      <c r="W8" s="10">
         <v>29</v>
       </c>
-      <c r="X8" s="12">
+      <c r="X8" s="11">
         <v>41</v>
       </c>
       <c r="Y8" s="4"/>
-      <c r="Z8" s="10" t="s">
-        <v>44</v>
+      <c r="Z8" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
@@ -1421,78 +1427,78 @@
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="11">
         <v>42</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="11">
         <v>42</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="11">
         <v>42</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="11">
         <v>42</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <v>42</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="11">
         <v>42</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="10">
         <v>31</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="11">
         <v>42</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="11">
         <v>42</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="11">
         <v>42</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="11">
         <v>42</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="11">
         <v>42</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9" s="11">
         <v>42</v>
       </c>
-      <c r="O9" s="12">
+      <c r="O9" s="11">
         <v>42</v>
       </c>
-      <c r="P9" s="12">
+      <c r="P9" s="11">
         <v>42</v>
       </c>
-      <c r="Q9" s="12">
+      <c r="Q9" s="11">
         <v>42</v>
       </c>
-      <c r="R9" s="12">
+      <c r="R9" s="11">
         <v>42</v>
       </c>
-      <c r="S9" s="12">
+      <c r="S9" s="11">
         <v>42</v>
       </c>
-      <c r="T9" s="12">
+      <c r="T9" s="11">
         <v>42</v>
       </c>
-      <c r="U9" s="12">
+      <c r="U9" s="11">
         <v>42</v>
       </c>
-      <c r="V9" s="12">
+      <c r="V9" s="11">
         <v>42</v>
       </c>
-      <c r="W9" s="12">
+      <c r="W9" s="11">
         <v>42</v>
       </c>
-      <c r="X9" s="12">
+      <c r="X9" s="11">
         <v>42</v>
       </c>
       <c r="Y9" s="4"/>
-      <c r="Z9" s="10" t="s">
-        <v>44</v>
+      <c r="Z9" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
@@ -1511,78 +1517,78 @@
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>32</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>32</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>32</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>32</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <v>32</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="10">
         <v>32</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="10">
         <v>33</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="10">
         <v>32</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="10">
         <v>32</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="10">
         <v>32</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10" s="10">
         <v>32</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="11">
         <v>43</v>
       </c>
-      <c r="N10" s="11">
+      <c r="N10" s="10">
         <v>32</v>
       </c>
-      <c r="O10" s="11">
+      <c r="O10" s="10">
         <v>32</v>
       </c>
-      <c r="P10" s="11">
+      <c r="P10" s="10">
         <v>32</v>
       </c>
-      <c r="Q10" s="11">
+      <c r="Q10" s="10">
         <v>32</v>
       </c>
-      <c r="R10" s="11">
+      <c r="R10" s="10">
         <v>32</v>
       </c>
-      <c r="S10" s="11">
+      <c r="S10" s="10">
         <v>32</v>
       </c>
-      <c r="T10" s="11">
+      <c r="T10" s="10">
         <v>32</v>
       </c>
-      <c r="U10" s="11">
+      <c r="U10" s="10">
         <v>32</v>
       </c>
-      <c r="V10" s="11">
+      <c r="V10" s="10">
         <v>32</v>
       </c>
-      <c r="W10" s="11">
+      <c r="W10" s="10">
         <v>32</v>
       </c>
-      <c r="X10" s="12">
+      <c r="X10" s="11">
         <v>43</v>
       </c>
       <c r="Y10" s="4"/>
-      <c r="Z10" s="10" t="s">
-        <v>44</v>
+      <c r="Z10" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
@@ -1601,78 +1607,78 @@
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <v>34</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>34</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <v>34</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>34</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <v>10</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="10">
         <v>34</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="10">
         <v>34</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="10">
         <v>34</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="10">
         <v>34</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="10">
         <v>34</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="10">
         <v>34</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="10">
         <v>34</v>
       </c>
-      <c r="N11" s="11">
+      <c r="N11" s="10">
         <v>34</v>
       </c>
-      <c r="O11" s="11">
+      <c r="O11" s="10">
         <v>34</v>
       </c>
-      <c r="P11" s="11">
+      <c r="P11" s="10">
         <v>34</v>
       </c>
-      <c r="Q11" s="11">
+      <c r="Q11" s="10">
         <v>34</v>
       </c>
-      <c r="R11" s="11">
+      <c r="R11" s="10">
         <v>34</v>
       </c>
-      <c r="S11" s="11">
+      <c r="S11" s="10">
         <v>34</v>
       </c>
-      <c r="T11" s="11">
+      <c r="T11" s="10">
         <v>34</v>
       </c>
-      <c r="U11" s="11">
+      <c r="U11" s="10">
         <v>34</v>
       </c>
-      <c r="V11" s="11">
+      <c r="V11" s="10">
         <v>34</v>
       </c>
-      <c r="W11" s="11">
+      <c r="W11" s="10">
         <v>34</v>
       </c>
-      <c r="X11" s="12">
+      <c r="X11" s="11">
         <v>46</v>
       </c>
       <c r="Y11" s="4"/>
-      <c r="Z11" s="10" t="s">
-        <v>44</v>
+      <c r="Z11" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
@@ -1691,78 +1697,78 @@
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <v>10</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <v>10</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <v>10</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <v>10</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <v>11</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="10">
         <v>10</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="10">
         <v>10</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="10">
         <v>10</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="10">
         <v>10</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="10">
         <v>10</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="10">
         <v>10</v>
       </c>
-      <c r="M12" s="11">
+      <c r="M12" s="10">
         <v>10</v>
       </c>
-      <c r="N12" s="11">
+      <c r="N12" s="10">
         <v>10</v>
       </c>
-      <c r="O12" s="11">
+      <c r="O12" s="10">
         <v>10</v>
       </c>
-      <c r="P12" s="11">
+      <c r="P12" s="10">
         <v>10</v>
       </c>
-      <c r="Q12" s="11">
+      <c r="Q12" s="10">
         <v>10</v>
       </c>
-      <c r="R12" s="11">
+      <c r="R12" s="10">
         <v>10</v>
       </c>
-      <c r="S12" s="11">
+      <c r="S12" s="10">
         <v>10</v>
       </c>
-      <c r="T12" s="11">
+      <c r="T12" s="10">
         <v>10</v>
       </c>
-      <c r="U12" s="11">
+      <c r="U12" s="10">
         <v>10</v>
       </c>
-      <c r="V12" s="11">
+      <c r="V12" s="10">
         <v>10</v>
       </c>
-      <c r="W12" s="12">
-        <v>44</v>
-      </c>
-      <c r="X12" s="13">
+      <c r="W12" s="11">
+        <v>45</v>
+      </c>
+      <c r="X12" s="10">
         <v>10</v>
       </c>
       <c r="Y12" s="4"/>
-      <c r="Z12" s="10" t="s">
-        <v>44</v>
+      <c r="Z12" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
@@ -1781,78 +1787,78 @@
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <v>10</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="10">
         <v>10</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10">
         <v>10</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <v>10</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <v>10</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="10">
         <v>35</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="10">
         <v>10</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="10">
         <v>10</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="10">
         <v>10</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="10">
         <v>10</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L13" s="10">
         <v>10</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M13" s="10">
         <v>10</v>
       </c>
-      <c r="N13" s="11">
+      <c r="N13" s="10">
         <v>10</v>
       </c>
-      <c r="O13" s="11">
+      <c r="O13" s="10">
         <v>10</v>
       </c>
-      <c r="P13" s="11">
+      <c r="P13" s="10">
         <v>10</v>
       </c>
-      <c r="Q13" s="11">
+      <c r="Q13" s="10">
         <v>10</v>
       </c>
-      <c r="R13" s="11">
+      <c r="R13" s="10">
         <v>10</v>
       </c>
-      <c r="S13" s="11">
+      <c r="S13" s="10">
         <v>10</v>
       </c>
-      <c r="T13" s="11">
+      <c r="T13" s="10">
         <v>10</v>
       </c>
-      <c r="U13" s="11">
+      <c r="U13" s="10">
         <v>10</v>
       </c>
-      <c r="V13" s="11">
+      <c r="V13" s="10">
         <v>10</v>
       </c>
-      <c r="W13" s="12">
-        <v>44</v>
-      </c>
-      <c r="X13" s="11">
+      <c r="W13" s="11">
+        <v>45</v>
+      </c>
+      <c r="X13" s="10">
         <v>10</v>
       </c>
       <c r="Y13" s="4"/>
-      <c r="Z13" s="10" t="s">
-        <v>44</v>
+      <c r="Z13" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
@@ -1871,78 +1877,78 @@
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="10">
         <v>12</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="10">
         <v>12</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="10">
         <v>12</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <v>12</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="10">
         <v>12</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="10">
         <v>12</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="10">
         <v>12</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="10">
         <v>12</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="10">
         <v>12</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="10">
         <v>12</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14" s="10">
         <v>36</v>
       </c>
-      <c r="M14" s="11">
+      <c r="M14" s="10">
         <v>12</v>
       </c>
-      <c r="N14" s="11">
+      <c r="N14" s="10">
         <v>12</v>
       </c>
-      <c r="O14" s="11">
+      <c r="O14" s="10">
         <v>12</v>
       </c>
-      <c r="P14" s="11">
+      <c r="P14" s="10">
         <v>12</v>
       </c>
-      <c r="Q14" s="11">
+      <c r="Q14" s="10">
         <v>12</v>
       </c>
-      <c r="R14" s="11">
+      <c r="R14" s="10">
         <v>12</v>
       </c>
-      <c r="S14" s="11">
+      <c r="S14" s="10">
         <v>12</v>
       </c>
-      <c r="T14" s="11">
+      <c r="T14" s="10">
         <v>12</v>
       </c>
-      <c r="U14" s="11">
+      <c r="U14" s="10">
         <v>12</v>
       </c>
-      <c r="V14" s="11">
+      <c r="V14" s="10">
         <v>12</v>
       </c>
-      <c r="W14" s="12">
-        <v>45</v>
-      </c>
-      <c r="X14" s="11">
+      <c r="W14" s="11">
+        <v>44</v>
+      </c>
+      <c r="X14" s="10">
         <v>12</v>
       </c>
       <c r="Y14" s="4"/>
-      <c r="Z14" s="10" t="s">
-        <v>44</v>
+      <c r="Z14" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
@@ -1961,34 +1967,34 @@
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="14"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
       <c r="Y15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="Z15" s="10" t="s">
-        <v>47</v>
+      <c r="Z15" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
@@ -2007,34 +2013,34 @@
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="14"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
       <c r="Y16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="Z16" s="10" t="s">
-        <v>47</v>
+      <c r="Z16" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
@@ -2053,34 +2059,34 @@
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="14"/>
-      <c r="X17" s="14"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
       <c r="Y17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Z17" s="10" t="s">
-        <v>47</v>
+      <c r="Z17" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
@@ -2099,34 +2105,34 @@
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="14"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
       <c r="Y18" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="Z18" s="10" t="s">
-        <v>47</v>
+      <c r="Z18" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
@@ -2145,34 +2151,34 @@
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="14"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
       <c r="Y19" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="Z19" s="10" t="s">
-        <v>47</v>
+      <c r="Z19" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
@@ -2191,34 +2197,34 @@
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="14"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
       <c r="Y20" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="Z20" s="10" t="s">
-        <v>47</v>
+      <c r="Z20" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
@@ -2237,34 +2243,34 @@
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="14"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
       <c r="Y21" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="Z21" s="10" t="s">
-        <v>47</v>
+      <c r="Z21" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
@@ -2283,34 +2289,34 @@
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="14"/>
-      <c r="W22" s="14"/>
-      <c r="X22" s="14"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
       <c r="Y22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="Z22" s="10" t="s">
-        <v>47</v>
+      <c r="Z22" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
@@ -2329,34 +2335,34 @@
       <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="14"/>
-      <c r="X23" s="14"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
       <c r="Y23" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="Z23" s="10" t="s">
-        <v>47</v>
+      <c r="Z23" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
@@ -2375,34 +2381,34 @@
       <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="14"/>
-      <c r="X24" s="14"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
       <c r="Y24" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="Z24" s="10" t="s">
-        <v>47</v>
+      <c r="Z24" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
@@ -2421,34 +2427,34 @@
       <c r="A25" s="3">
         <v>23</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="14"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="14"/>
-      <c r="X25" s="14"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
       <c r="Y25" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Z25" s="10" t="s">
-        <v>47</v>
+      <c r="Z25" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
@@ -2467,34 +2473,34 @@
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="14"/>
-      <c r="W26" s="14"/>
-      <c r="X26" s="14"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
       <c r="Y26" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Z26" s="10" t="s">
-        <v>47</v>
+      <c r="Z26" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
@@ -2513,34 +2519,34 @@
       <c r="A27" s="3">
         <v>25</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="14"/>
-      <c r="V27" s="14"/>
-      <c r="W27" s="14"/>
-      <c r="X27" s="14"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
       <c r="Y27" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Z27" s="10" t="s">
-        <v>47</v>
+      <c r="Z27" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
@@ -2559,34 +2565,34 @@
       <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="14"/>
-      <c r="V28" s="14"/>
-      <c r="W28" s="14"/>
-      <c r="X28" s="14"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
       <c r="Y28" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="Z28" s="10" t="s">
-        <v>47</v>
+      <c r="Z28" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
@@ -2605,34 +2611,34 @@
       <c r="A29" s="3">
         <v>27</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="14"/>
-      <c r="X29" s="14"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="12"/>
       <c r="Y29" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Z29" s="10" t="s">
-        <v>47</v>
+      <c r="Z29" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
@@ -2651,34 +2657,34 @@
       <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="14"/>
-      <c r="V30" s="14"/>
-      <c r="W30" s="14"/>
-      <c r="X30" s="14"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
       <c r="Y30" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="Z30" s="10" t="s">
-        <v>47</v>
+      <c r="Z30" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
@@ -2697,34 +2703,34 @@
       <c r="A31" s="3">
         <v>29</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="14"/>
-      <c r="T31" s="14"/>
-      <c r="U31" s="14"/>
-      <c r="V31" s="14"/>
-      <c r="W31" s="14"/>
-      <c r="X31" s="14"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="12"/>
+      <c r="X31" s="12"/>
       <c r="Y31" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="Z31" s="10" t="s">
-        <v>47</v>
+      <c r="Z31" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
@@ -2743,34 +2749,34 @@
       <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="14"/>
-      <c r="T32" s="14"/>
-      <c r="U32" s="14"/>
-      <c r="V32" s="14"/>
-      <c r="W32" s="14"/>
-      <c r="X32" s="14"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="12"/>
       <c r="Y32" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Z32" s="10" t="s">
-        <v>47</v>
+      <c r="Z32" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
@@ -2789,34 +2795,34 @@
       <c r="A33" s="3">
         <v>31</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="14"/>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="14"/>
-      <c r="R33" s="14"/>
-      <c r="S33" s="14"/>
-      <c r="T33" s="14"/>
-      <c r="U33" s="14"/>
-      <c r="V33" s="14"/>
-      <c r="W33" s="14"/>
-      <c r="X33" s="14"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="12"/>
+      <c r="W33" s="12"/>
+      <c r="X33" s="12"/>
       <c r="Y33" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Z33" s="10" t="s">
-        <v>47</v>
+      <c r="Z33" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
@@ -2835,34 +2841,34 @@
       <c r="A34" s="3">
         <v>32</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="14"/>
-      <c r="R34" s="14"/>
-      <c r="S34" s="14"/>
-      <c r="T34" s="14"/>
-      <c r="U34" s="14"/>
-      <c r="V34" s="14"/>
-      <c r="W34" s="14"/>
-      <c r="X34" s="14"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="12"/>
+      <c r="W34" s="12"/>
+      <c r="X34" s="12"/>
       <c r="Y34" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Z34" s="10" t="s">
-        <v>47</v>
+      <c r="Z34" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
@@ -2881,34 +2887,34 @@
       <c r="A35" s="3">
         <v>33</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="14"/>
-      <c r="O35" s="14"/>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="14"/>
-      <c r="R35" s="14"/>
-      <c r="S35" s="14"/>
-      <c r="T35" s="14"/>
-      <c r="U35" s="14"/>
-      <c r="V35" s="14"/>
-      <c r="W35" s="14"/>
-      <c r="X35" s="14"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="12"/>
+      <c r="W35" s="12"/>
+      <c r="X35" s="12"/>
       <c r="Y35" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="Z35" s="10" t="s">
-        <v>47</v>
+      <c r="Z35" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
@@ -2927,34 +2933,34 @@
       <c r="A36" s="3">
         <v>34</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="14"/>
-      <c r="R36" s="14"/>
-      <c r="S36" s="14"/>
-      <c r="T36" s="14"/>
-      <c r="U36" s="14"/>
-      <c r="V36" s="14"/>
-      <c r="W36" s="14"/>
-      <c r="X36" s="14"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="12"/>
+      <c r="W36" s="12"/>
+      <c r="X36" s="12"/>
       <c r="Y36" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="Z36" s="10" t="s">
-        <v>47</v>
+      <c r="Z36" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
@@ -2973,34 +2979,34 @@
       <c r="A37" s="3">
         <v>35</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="14"/>
-      <c r="O37" s="14"/>
-      <c r="P37" s="14"/>
-      <c r="Q37" s="14"/>
-      <c r="R37" s="14"/>
-      <c r="S37" s="14"/>
-      <c r="T37" s="14"/>
-      <c r="U37" s="14"/>
-      <c r="V37" s="14"/>
-      <c r="W37" s="14"/>
-      <c r="X37" s="14"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="12"/>
+      <c r="W37" s="12"/>
+      <c r="X37" s="12"/>
       <c r="Y37" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="Z37" s="10" t="s">
-        <v>47</v>
+      <c r="Z37" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
@@ -3019,34 +3025,34 @@
       <c r="A38" s="3">
         <v>36</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="14"/>
-      <c r="R38" s="14"/>
-      <c r="S38" s="14"/>
-      <c r="T38" s="14"/>
-      <c r="U38" s="14"/>
-      <c r="V38" s="14"/>
-      <c r="W38" s="14"/>
-      <c r="X38" s="14"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="12"/>
+      <c r="X38" s="12"/>
       <c r="Y38" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="Z38" s="10" t="s">
-        <v>47</v>
+      <c r="Z38" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
@@ -3065,34 +3071,34 @@
       <c r="A39" s="3">
         <v>37</v>
       </c>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="15"/>
-      <c r="R39" s="15"/>
-      <c r="S39" s="15"/>
-      <c r="T39" s="15"/>
-      <c r="U39" s="15"/>
-      <c r="V39" s="15"/>
-      <c r="W39" s="15"/>
-      <c r="X39" s="15"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13"/>
+      <c r="S39" s="13"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="13"/>
+      <c r="W39" s="13"/>
+      <c r="X39" s="13"/>
       <c r="Y39" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Z39" s="10" t="s">
-        <v>45</v>
+      <c r="Z39" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
@@ -3111,34 +3117,34 @@
       <c r="A40" s="3">
         <v>38</v>
       </c>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="15"/>
-      <c r="O40" s="15"/>
-      <c r="P40" s="15"/>
-      <c r="Q40" s="15"/>
-      <c r="R40" s="15"/>
-      <c r="S40" s="15"/>
-      <c r="T40" s="15"/>
-      <c r="U40" s="15"/>
-      <c r="V40" s="15"/>
-      <c r="W40" s="15"/>
-      <c r="X40" s="15"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
+      <c r="R40" s="13"/>
+      <c r="S40" s="13"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="13"/>
+      <c r="V40" s="13"/>
+      <c r="W40" s="13"/>
+      <c r="X40" s="13"/>
       <c r="Y40" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Z40" s="10" t="s">
-        <v>45</v>
+      <c r="Z40" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
@@ -3157,34 +3163,34 @@
       <c r="A41" s="3">
         <v>39</v>
       </c>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="15"/>
-      <c r="M41" s="15"/>
-      <c r="N41" s="15"/>
-      <c r="O41" s="15"/>
-      <c r="P41" s="15"/>
-      <c r="Q41" s="15"/>
-      <c r="R41" s="15"/>
-      <c r="S41" s="15"/>
-      <c r="T41" s="15"/>
-      <c r="U41" s="15"/>
-      <c r="V41" s="15"/>
-      <c r="W41" s="15"/>
-      <c r="X41" s="15"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
+      <c r="R41" s="13"/>
+      <c r="S41" s="13"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="13"/>
+      <c r="V41" s="13"/>
+      <c r="W41" s="13"/>
+      <c r="X41" s="13"/>
       <c r="Y41" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="Z41" s="10" t="s">
-        <v>45</v>
+      <c r="Z41" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
@@ -3203,34 +3209,34 @@
       <c r="A42" s="3">
         <v>40</v>
       </c>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="15"/>
-      <c r="P42" s="15"/>
-      <c r="Q42" s="15"/>
-      <c r="R42" s="15"/>
-      <c r="S42" s="15"/>
-      <c r="T42" s="15"/>
-      <c r="U42" s="15"/>
-      <c r="V42" s="15"/>
-      <c r="W42" s="15"/>
-      <c r="X42" s="15"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="13"/>
+      <c r="R42" s="13"/>
+      <c r="S42" s="13"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="13"/>
+      <c r="W42" s="13"/>
+      <c r="X42" s="13"/>
       <c r="Y42" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="Z42" s="10" t="s">
-        <v>45</v>
+      <c r="Z42" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
@@ -3249,34 +3255,34 @@
       <c r="A43" s="3">
         <v>41</v>
       </c>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="15"/>
-      <c r="L43" s="15"/>
-      <c r="M43" s="15"/>
-      <c r="N43" s="15"/>
-      <c r="O43" s="15"/>
-      <c r="P43" s="15"/>
-      <c r="Q43" s="15"/>
-      <c r="R43" s="15"/>
-      <c r="S43" s="15"/>
-      <c r="T43" s="15"/>
-      <c r="U43" s="15"/>
-      <c r="V43" s="15"/>
-      <c r="W43" s="15"/>
-      <c r="X43" s="15"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="13"/>
+      <c r="R43" s="13"/>
+      <c r="S43" s="13"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="13"/>
+      <c r="W43" s="13"/>
+      <c r="X43" s="13"/>
       <c r="Y43" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="Z43" s="10" t="s">
-        <v>45</v>
+      <c r="Z43" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
@@ -3295,34 +3301,34 @@
       <c r="A44" s="3">
         <v>42</v>
       </c>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="15"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="15"/>
-      <c r="N44" s="15"/>
-      <c r="O44" s="15"/>
-      <c r="P44" s="15"/>
-      <c r="Q44" s="15"/>
-      <c r="R44" s="15"/>
-      <c r="S44" s="15"/>
-      <c r="T44" s="15"/>
-      <c r="U44" s="15"/>
-      <c r="V44" s="15"/>
-      <c r="W44" s="15"/>
-      <c r="X44" s="15"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="13"/>
+      <c r="S44" s="13"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="13"/>
+      <c r="V44" s="13"/>
+      <c r="W44" s="13"/>
+      <c r="X44" s="13"/>
       <c r="Y44" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="Z44" s="10" t="s">
-        <v>45</v>
+      <c r="Z44" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
@@ -3341,34 +3347,34 @@
       <c r="A45" s="3">
         <v>43</v>
       </c>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="15"/>
-      <c r="L45" s="15"/>
-      <c r="M45" s="15"/>
-      <c r="N45" s="15"/>
-      <c r="O45" s="15"/>
-      <c r="P45" s="15"/>
-      <c r="Q45" s="15"/>
-      <c r="R45" s="15"/>
-      <c r="S45" s="15"/>
-      <c r="T45" s="15"/>
-      <c r="U45" s="15"/>
-      <c r="V45" s="15"/>
-      <c r="W45" s="15"/>
-      <c r="X45" s="15"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="13"/>
+      <c r="Q45" s="13"/>
+      <c r="R45" s="13"/>
+      <c r="S45" s="13"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="13"/>
+      <c r="V45" s="13"/>
+      <c r="W45" s="13"/>
+      <c r="X45" s="13"/>
       <c r="Y45" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="Z45" s="10" t="s">
-        <v>45</v>
+      <c r="Z45" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
@@ -3387,34 +3393,34 @@
       <c r="A46" s="3">
         <v>44</v>
       </c>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="15"/>
-      <c r="L46" s="15"/>
-      <c r="M46" s="15"/>
-      <c r="N46" s="15"/>
-      <c r="O46" s="15"/>
-      <c r="P46" s="15"/>
-      <c r="Q46" s="15"/>
-      <c r="R46" s="15"/>
-      <c r="S46" s="15"/>
-      <c r="T46" s="15"/>
-      <c r="U46" s="15"/>
-      <c r="V46" s="15"/>
-      <c r="W46" s="15"/>
-      <c r="X46" s="15"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="13"/>
+      <c r="N46" s="13"/>
+      <c r="O46" s="13"/>
+      <c r="P46" s="13"/>
+      <c r="Q46" s="13"/>
+      <c r="R46" s="13"/>
+      <c r="S46" s="13"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="13"/>
+      <c r="V46" s="13"/>
+      <c r="W46" s="13"/>
+      <c r="X46" s="13"/>
       <c r="Y46" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z46" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="Z46" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
@@ -3433,34 +3439,34 @@
       <c r="A47" s="3">
         <v>45</v>
       </c>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="15"/>
-      <c r="L47" s="15"/>
-      <c r="M47" s="15"/>
-      <c r="N47" s="15"/>
-      <c r="O47" s="15"/>
-      <c r="P47" s="15"/>
-      <c r="Q47" s="15"/>
-      <c r="R47" s="15"/>
-      <c r="S47" s="15"/>
-      <c r="T47" s="15"/>
-      <c r="U47" s="15"/>
-      <c r="V47" s="15"/>
-      <c r="W47" s="15"/>
-      <c r="X47" s="15"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="13"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="13"/>
+      <c r="R47" s="13"/>
+      <c r="S47" s="13"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="13"/>
+      <c r="V47" s="13"/>
+      <c r="W47" s="13"/>
+      <c r="X47" s="13"/>
       <c r="Y47" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z47" s="10" t="s">
-        <v>45</v>
+        <v>39</v>
+      </c>
+      <c r="Z47" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
@@ -3479,34 +3485,34 @@
       <c r="A48" s="3">
         <v>46</v>
       </c>
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="15"/>
-      <c r="L48" s="15"/>
-      <c r="M48" s="15"/>
-      <c r="N48" s="15"/>
-      <c r="O48" s="15"/>
-      <c r="P48" s="15"/>
-      <c r="Q48" s="15"/>
-      <c r="R48" s="15"/>
-      <c r="S48" s="15"/>
-      <c r="T48" s="15"/>
-      <c r="U48" s="15"/>
-      <c r="V48" s="15"/>
-      <c r="W48" s="15"/>
-      <c r="X48" s="15"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="13"/>
+      <c r="Q48" s="13"/>
+      <c r="R48" s="13"/>
+      <c r="S48" s="13"/>
+      <c r="T48" s="13"/>
+      <c r="U48" s="13"/>
+      <c r="V48" s="13"/>
+      <c r="W48" s="13"/>
+      <c r="X48" s="13"/>
       <c r="Y48" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z48" s="10" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="Z48" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
@@ -3521,33 +3527,33 @@
       <c r="AK48" s="1"/>
       <c r="AL48" s="1"/>
     </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
-      <c r="R49" s="1"/>
-      <c r="S49" s="1"/>
-      <c r="T49" s="1"/>
-      <c r="U49" s="1"/>
-      <c r="V49" s="1"/>
-      <c r="W49" s="1"/>
-      <c r="X49" s="1"/>
+    <row r="49" spans="1:42" ht="19" x14ac:dyDescent="0.2">
+      <c r="A49" s="15"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="16"/>
+      <c r="O49" s="16"/>
+      <c r="P49" s="16"/>
+      <c r="Q49" s="16"/>
+      <c r="R49" s="16"/>
+      <c r="S49" s="16"/>
+      <c r="T49" s="16"/>
+      <c r="U49" s="16"/>
+      <c r="V49" s="16"/>
+      <c r="W49" s="16"/>
+      <c r="X49" s="16"/>
       <c r="Y49" s="1"/>
-      <c r="Z49" s="1"/>
+      <c r="Z49" s="17"/>
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
       <c r="AC49" s="1"/>
@@ -3560,10 +3566,6 @@
       <c r="AJ49" s="1"/>
       <c r="AK49" s="1"/>
       <c r="AL49" s="1"/>
-      <c r="AM49" s="1"/>
-      <c r="AN49" s="1"/>
-      <c r="AO49" s="1"/>
-      <c r="AP49" s="1"/>
     </row>
     <row r="50" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
@@ -10077,6 +10079,50 @@
       <c r="AO197" s="1"/>
       <c r="AP197" s="1"/>
     </row>
+    <row r="198" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A198" s="1"/>
+      <c r="B198" s="1"/>
+      <c r="C198" s="1"/>
+      <c r="D198" s="1"/>
+      <c r="E198" s="1"/>
+      <c r="F198" s="1"/>
+      <c r="G198" s="1"/>
+      <c r="H198" s="1"/>
+      <c r="I198" s="1"/>
+      <c r="J198" s="1"/>
+      <c r="K198" s="1"/>
+      <c r="L198" s="1"/>
+      <c r="M198" s="1"/>
+      <c r="N198" s="1"/>
+      <c r="O198" s="1"/>
+      <c r="P198" s="1"/>
+      <c r="Q198" s="1"/>
+      <c r="R198" s="1"/>
+      <c r="S198" s="1"/>
+      <c r="T198" s="1"/>
+      <c r="U198" s="1"/>
+      <c r="V198" s="1"/>
+      <c r="W198" s="1"/>
+      <c r="X198" s="1"/>
+      <c r="Y198" s="1"/>
+      <c r="Z198" s="1"/>
+      <c r="AA198" s="1"/>
+      <c r="AB198" s="1"/>
+      <c r="AC198" s="1"/>
+      <c r="AD198" s="1"/>
+      <c r="AE198" s="1"/>
+      <c r="AF198" s="1"/>
+      <c r="AG198" s="1"/>
+      <c r="AH198" s="1"/>
+      <c r="AI198" s="1"/>
+      <c r="AJ198" s="1"/>
+      <c r="AK198" s="1"/>
+      <c r="AL198" s="1"/>
+      <c r="AM198" s="1"/>
+      <c r="AN198" s="1"/>
+      <c r="AO198" s="1"/>
+      <c r="AP198" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="38" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>

--- a/transition_table.xlsx
+++ b/transition_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agus/Desktop/TEC/TENTH SEMESTER/compiler_c--/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9604F0C-81A3-3D47-9297-C35AA75F17C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59A904F-E669-3244-AADB-7F29636FACD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{C87F3C94-E967-7646-AB38-6573D1AFE849}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{C87F3C94-E967-7646-AB38-6573D1AFE849}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -107,12 +107,6 @@
     <t>IDENTIFIER</t>
   </si>
   <si>
-    <t>INT</t>
-  </si>
-  <si>
-    <t>FLOAT</t>
-  </si>
-  <si>
     <t>&lt;</t>
   </si>
   <si>
@@ -132,9 +126,6 @@
   </si>
   <si>
     <t>COMMENT</t>
-  </si>
-  <si>
-    <t>STRING</t>
   </si>
   <si>
     <t>IDENTIFIER ERROR</t>
@@ -183,6 +174,15 @@
   </si>
   <si>
     <t>INVALID STRING</t>
+  </si>
+  <si>
+    <t>INT_CONSTANT</t>
+  </si>
+  <si>
+    <t>FLOAT_CONSTANT</t>
+  </si>
+  <si>
+    <t>STRING_CONSTANT</t>
   </si>
 </sst>
 </file>
@@ -690,8 +690,8 @@
   </sheetPr>
   <dimension ref="A1:AP198"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Y39" sqref="Y39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -703,7 +703,7 @@
   <sheetData>
     <row r="1" spans="1:38" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>16</v>
@@ -760,10 +760,10 @@
         <v>14</v>
       </c>
       <c r="T1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="V1" s="3" t="s">
         <v>15</v>
@@ -775,10 +775,10 @@
         <v>18</v>
       </c>
       <c r="Y1" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z1" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
@@ -868,7 +868,7 @@
       </c>
       <c r="Y2" s="4"/>
       <c r="Z2" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
@@ -958,7 +958,7 @@
       </c>
       <c r="Y3" s="4"/>
       <c r="Z3" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
@@ -1048,7 +1048,7 @@
       </c>
       <c r="Y4" s="4"/>
       <c r="Z4" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
@@ -1138,7 +1138,7 @@
       </c>
       <c r="Y5" s="4"/>
       <c r="Z5" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="Y6" s="4"/>
       <c r="Z6" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="Y7" s="4"/>
       <c r="Z7" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
@@ -1408,7 +1408,7 @@
       </c>
       <c r="Y8" s="4"/>
       <c r="Z8" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
@@ -1498,7 +1498,7 @@
       </c>
       <c r="Y9" s="4"/>
       <c r="Z9" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
@@ -1588,7 +1588,7 @@
       </c>
       <c r="Y10" s="4"/>
       <c r="Z10" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
@@ -1678,7 +1678,7 @@
       </c>
       <c r="Y11" s="4"/>
       <c r="Z11" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
@@ -1768,7 +1768,7 @@
       </c>
       <c r="Y12" s="4"/>
       <c r="Z12" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
@@ -1858,7 +1858,7 @@
       </c>
       <c r="Y13" s="4"/>
       <c r="Z13" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
@@ -1948,7 +1948,7 @@
       </c>
       <c r="Y14" s="4"/>
       <c r="Z14" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
@@ -1994,7 +1994,7 @@
         <v>21</v>
       </c>
       <c r="Z15" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
@@ -2037,10 +2037,10 @@
       <c r="W16" s="12"/>
       <c r="X16" s="12"/>
       <c r="Y16" s="5" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="Z16" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
@@ -2083,10 +2083,10 @@
       <c r="W17" s="12"/>
       <c r="X17" s="12"/>
       <c r="Y17" s="5" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="Z17" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="Z18" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
@@ -2178,7 +2178,7 @@
         <v>1</v>
       </c>
       <c r="Z19" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
@@ -2224,7 +2224,7 @@
         <v>2</v>
       </c>
       <c r="Z20" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
@@ -2270,7 +2270,7 @@
         <v>9</v>
       </c>
       <c r="Z21" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
@@ -2316,7 +2316,7 @@
         <v>10</v>
       </c>
       <c r="Z22" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
@@ -2362,7 +2362,7 @@
         <v>11</v>
       </c>
       <c r="Z23" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
@@ -2408,7 +2408,7 @@
         <v>12</v>
       </c>
       <c r="Z24" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
@@ -2454,7 +2454,7 @@
         <v>13</v>
       </c>
       <c r="Z25" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
@@ -2500,7 +2500,7 @@
         <v>14</v>
       </c>
       <c r="Z26" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
@@ -2546,7 +2546,7 @@
         <v>5</v>
       </c>
       <c r="Z27" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
@@ -2592,7 +2592,7 @@
         <v>6</v>
       </c>
       <c r="Z28" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
@@ -2635,10 +2635,10 @@
       <c r="W29" s="12"/>
       <c r="X29" s="12"/>
       <c r="Y29" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Z29" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
@@ -2681,10 +2681,10 @@
       <c r="W30" s="12"/>
       <c r="X30" s="12"/>
       <c r="Y30" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Z30" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
@@ -2727,10 +2727,10 @@
       <c r="W31" s="12"/>
       <c r="X31" s="12"/>
       <c r="Y31" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Z31" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
@@ -2773,10 +2773,10 @@
       <c r="W32" s="12"/>
       <c r="X32" s="12"/>
       <c r="Y32" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Z32" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
@@ -2819,10 +2819,10 @@
       <c r="W33" s="12"/>
       <c r="X33" s="12"/>
       <c r="Y33" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Z33" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
@@ -2868,7 +2868,7 @@
         <v>20</v>
       </c>
       <c r="Z34" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
@@ -2911,10 +2911,10 @@
       <c r="W35" s="12"/>
       <c r="X35" s="12"/>
       <c r="Y35" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Z35" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
@@ -2960,7 +2960,7 @@
         <v>3</v>
       </c>
       <c r="Z36" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
@@ -3003,10 +3003,10 @@
       <c r="W37" s="12"/>
       <c r="X37" s="12"/>
       <c r="Y37" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Z37" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
@@ -3049,10 +3049,10 @@
       <c r="W38" s="12"/>
       <c r="X38" s="12"/>
       <c r="Y38" s="5" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="Z38" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
@@ -3095,10 +3095,10 @@
       <c r="W39" s="13"/>
       <c r="X39" s="13"/>
       <c r="Y39" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Z39" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
@@ -3141,10 +3141,10 @@
       <c r="W40" s="13"/>
       <c r="X40" s="13"/>
       <c r="Y40" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Z40" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
@@ -3187,10 +3187,10 @@
       <c r="W41" s="13"/>
       <c r="X41" s="13"/>
       <c r="Y41" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Z41" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
@@ -3233,10 +3233,10 @@
       <c r="W42" s="13"/>
       <c r="X42" s="13"/>
       <c r="Y42" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Z42" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
@@ -3279,10 +3279,10 @@
       <c r="W43" s="13"/>
       <c r="X43" s="13"/>
       <c r="Y43" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Z43" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
@@ -3325,10 +3325,10 @@
       <c r="W44" s="13"/>
       <c r="X44" s="13"/>
       <c r="Y44" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="Z44" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
@@ -3371,10 +3371,10 @@
       <c r="W45" s="13"/>
       <c r="X45" s="13"/>
       <c r="Y45" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Z45" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
@@ -3417,10 +3417,10 @@
       <c r="W46" s="13"/>
       <c r="X46" s="13"/>
       <c r="Y46" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Z46" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
@@ -3463,10 +3463,10 @@
       <c r="W47" s="13"/>
       <c r="X47" s="13"/>
       <c r="Y47" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Z47" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
@@ -3509,10 +3509,10 @@
       <c r="W48" s="13"/>
       <c r="X48" s="13"/>
       <c r="Y48" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z48" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
